--- a/spreadsheets/AllCompanyData.xlsx
+++ b/spreadsheets/AllCompanyData.xlsx
@@ -38,138 +38,136 @@
     <sheet name="GHG_Emissions_CHK US" sheetId="29" r:id="rId29"/>
     <sheet name="GHG_Emissions_PAM US" sheetId="30" r:id="rId30"/>
     <sheet name="GHG_Emissions_SES CN" sheetId="31" r:id="rId31"/>
-    <sheet name="GHG_Emissions_SOL SJ" sheetId="32" r:id="rId32"/>
-    <sheet name="GHG_Emissions_PXD US" sheetId="33" r:id="rId33"/>
-    <sheet name="GHG_Emissions_FRU CN" sheetId="34" r:id="rId34"/>
-    <sheet name="GHG_Emissions_MRO US" sheetId="35" r:id="rId35"/>
-    <sheet name="GHG_Emissions_ENB CN" sheetId="36" r:id="rId36"/>
-    <sheet name="GHG_Emissions_VET CN" sheetId="37" r:id="rId37"/>
-    <sheet name="GHG_Emissions_EPD US" sheetId="38" r:id="rId38"/>
-    <sheet name="GHG_Emissions_1756679D CN" sheetId="39" r:id="rId39"/>
-    <sheet name="GHG_Emissions_OKE US" sheetId="40" r:id="rId40"/>
-    <sheet name="GHG_Emissions_LNG US" sheetId="41" r:id="rId41"/>
-    <sheet name="GHG_Emissions_ERF CN" sheetId="42" r:id="rId42"/>
-    <sheet name="GHG_Emissions_0133955D CN" sheetId="43" r:id="rId43"/>
-    <sheet name="GHG_Emissions_VST US" sheetId="44" r:id="rId44"/>
-    <sheet name="GHG_Emissions_KMI US" sheetId="45" r:id="rId45"/>
-    <sheet name="GHG_Emissions_CVE CN" sheetId="46" r:id="rId46"/>
-    <sheet name="GHG_Emissions_125300Z CN" sheetId="47" r:id="rId47"/>
-    <sheet name="GHG_Emissions_D US" sheetId="48" r:id="rId48"/>
-    <sheet name="GHG_Emissions_601600 CH" sheetId="49" r:id="rId49"/>
-    <sheet name="GHG_Emissions_AES US" sheetId="50" r:id="rId50"/>
-    <sheet name="GHG_Emissions_FANG US" sheetId="51" r:id="rId51"/>
-    <sheet name="GHG_Emissions_ETRN US" sheetId="52" r:id="rId52"/>
-    <sheet name="GHG_Emissions_TOU CN" sheetId="53" r:id="rId53"/>
-    <sheet name="GHG_Emissions_PPL CN" sheetId="54" r:id="rId54"/>
-    <sheet name="GHG_Emissions_MPC US" sheetId="55" r:id="rId55"/>
-    <sheet name="GHG_Emissions_NVA CN" sheetId="56" r:id="rId56"/>
-    <sheet name="GHG_Emissions_SRE US" sheetId="57" r:id="rId57"/>
-    <sheet name="GHG_Emissions_2131499D CN" sheetId="58" r:id="rId58"/>
-    <sheet name="GHG_Emissions_SWN US" sheetId="59" r:id="rId59"/>
-    <sheet name="GHG_Emissions_2684630Z CN" sheetId="60" r:id="rId60"/>
-    <sheet name="GHG_Emissions_PETR4 BZ" sheetId="61" r:id="rId61"/>
-    <sheet name="GHG_Emissions_2158975D MM" sheetId="62" r:id="rId62"/>
-    <sheet name="GHG_Emissions_1628981D CN" sheetId="63" r:id="rId63"/>
-    <sheet name="GHG_Emissions_7662727Z CN" sheetId="64" r:id="rId64"/>
-    <sheet name="GHG_Emissions_CM CN" sheetId="65" r:id="rId65"/>
-    <sheet name="GHG_Emissions_KNOCPZ KS" sheetId="66" r:id="rId66"/>
-    <sheet name="GHG_Emissions_EQT US" sheetId="67" r:id="rId67"/>
-    <sheet name="GHG_Emissions_DUK US" sheetId="68" r:id="rId68"/>
-    <sheet name="GHG_Emissions_DTE US" sheetId="69" r:id="rId69"/>
-    <sheet name="GHG_Emissions_CLR US" sheetId="70" r:id="rId70"/>
-    <sheet name="GHG_Emissions_AEE US" sheetId="71" r:id="rId71"/>
-    <sheet name="GHG_Emissions_ET US" sheetId="72" r:id="rId72"/>
-    <sheet name="GHG_Emissions_120537Z CN" sheetId="73" r:id="rId73"/>
-    <sheet name="GHG_Emissions_RDSA LN" sheetId="74" r:id="rId74"/>
-    <sheet name="GHG_Emissions_0181220D CN" sheetId="75" r:id="rId75"/>
-    <sheet name="GHG_Emissions_1272320D US" sheetId="76" r:id="rId76"/>
-    <sheet name="GHG_Emissions_TRP CN" sheetId="77" r:id="rId77"/>
-    <sheet name="GHG_Emissions_SO US" sheetId="78" r:id="rId78"/>
-    <sheet name="GHG_Emissions_IMO CN" sheetId="79" r:id="rId79"/>
-    <sheet name="GHG_Emissions_POU CN" sheetId="80" r:id="rId80"/>
-    <sheet name="GHG_Emissions_FNV CN" sheetId="81" r:id="rId81"/>
-    <sheet name="GHG_Emissions_SHEL LN" sheetId="82" r:id="rId82"/>
-    <sheet name="GHG_Emissions_LNT US" sheetId="83" r:id="rId83"/>
-    <sheet name="GHG_Emissions_BATL US" sheetId="84" r:id="rId84"/>
-    <sheet name="GHG_Emissions_CVX US" sheetId="85" r:id="rId85"/>
-    <sheet name="GHG_Emissions_ENEL IM" sheetId="86" r:id="rId86"/>
-    <sheet name="GHG_Emissions_CNQ CN" sheetId="87" r:id="rId87"/>
-    <sheet name="GHG_Emissions_BMO CN" sheetId="88" r:id="rId88"/>
-    <sheet name="GHG_Emissions_SU CN" sheetId="89" r:id="rId89"/>
-    <sheet name="GHG_Emissions_62647Z LN" sheetId="90" r:id="rId90"/>
-    <sheet name="GHG_Emissions_BRK-B US" sheetId="91" r:id="rId91"/>
-    <sheet name="GHG_Emissions_8001 JP" sheetId="92" r:id="rId92"/>
-    <sheet name="GHG_Emissions_BNS CN" sheetId="93" r:id="rId93"/>
-    <sheet name="GHG_Emissions_RY CN" sheetId="94" r:id="rId94"/>
-    <sheet name="GHG_Emissions_NWR CN" sheetId="95" r:id="rId95"/>
-    <sheet name="GHG_Emissions_VLO US" sheetId="96" r:id="rId96"/>
-    <sheet name="GHG_Emissions_BIR CN" sheetId="97" r:id="rId97"/>
-    <sheet name="GHG_Emissions_ENI IM" sheetId="98" r:id="rId98"/>
-    <sheet name="GHG_Emissions_SLF CN" sheetId="99" r:id="rId99"/>
-    <sheet name="GHG_Emissions_1487407D CN" sheetId="100" r:id="rId100"/>
-    <sheet name="GHG_Emissions_POW CN" sheetId="101" r:id="rId101"/>
-    <sheet name="GHG_Emissions_3478182Z US" sheetId="102" r:id="rId102"/>
-    <sheet name="GHG_Emissions_WEC US" sheetId="103" r:id="rId103"/>
-    <sheet name="GHG_Emissions_CRGY US" sheetId="104" r:id="rId104"/>
-    <sheet name="GHG_Emissions_PEG US" sheetId="105" r:id="rId105"/>
-    <sheet name="GHG_Emissions_GALP PL" sheetId="106" r:id="rId106"/>
-    <sheet name="GHG_Emissions_58325Z NL" sheetId="107" r:id="rId107"/>
-    <sheet name="GHG_Emissions_NA CN" sheetId="108" r:id="rId108"/>
-    <sheet name="GHG_Emissions_804652Z CN" sheetId="109" r:id="rId109"/>
-    <sheet name="GHG_Emissions_BRY US" sheetId="110" r:id="rId110"/>
-    <sheet name="GHG_Emissions_PEY CN" sheetId="111" r:id="rId111"/>
-    <sheet name="GHG_Emissions_3244814Z CN" sheetId="112" r:id="rId112"/>
-    <sheet name="GHG_Emissions_ARX CN" sheetId="113" r:id="rId113"/>
-    <sheet name="GHG_Emissions_LGCY US" sheetId="114" r:id="rId114"/>
-    <sheet name="GHG_Emissions_EMA CN" sheetId="115" r:id="rId115"/>
-    <sheet name="GHG_Emissions_TRGP US" sheetId="116" r:id="rId116"/>
-    <sheet name="GHG_Emissions_1911116D CN" sheetId="117" r:id="rId117"/>
-    <sheet name="GHG_Emissions_FTS CN" sheetId="118" r:id="rId118"/>
-    <sheet name="GHG_Emissions_IENOVA MM" sheetId="119" r:id="rId119"/>
-    <sheet name="GHG_Emissions_OGE US" sheetId="120" r:id="rId120"/>
-    <sheet name="GHG_Emissions_1216765D US" sheetId="121" r:id="rId121"/>
-    <sheet name="GHG_Emissions_EOG US" sheetId="122" r:id="rId122"/>
-    <sheet name="GHG_Emissions_5981426Z CN" sheetId="123" r:id="rId123"/>
-    <sheet name="GHG_Emissions_OVV US" sheetId="124" r:id="rId124"/>
-    <sheet name="GHG_Emissions_XEL US" sheetId="125" r:id="rId125"/>
-    <sheet name="GHG_Emissions_CMS US" sheetId="126" r:id="rId126"/>
-    <sheet name="GHG_Emissions_FE US" sheetId="127" r:id="rId127"/>
-    <sheet name="GHG_Emissions_TVE CN" sheetId="128" r:id="rId128"/>
-    <sheet name="GHG_Emissions_CPG CN" sheetId="129" r:id="rId129"/>
-    <sheet name="GHG_Emissions_TECK-B CN" sheetId="130" r:id="rId130"/>
-    <sheet name="GHG_Emissions_TTE FP" sheetId="131" r:id="rId131"/>
-    <sheet name="GHG_Emissions_NRG US" sheetId="132" r:id="rId132"/>
-    <sheet name="GHG_Emissions_3682Z CN" sheetId="133" r:id="rId133"/>
-    <sheet name="GHG_Emissions_AEP US" sheetId="134" r:id="rId134"/>
-    <sheet name="GHG_Emissions_HES US" sheetId="135" r:id="rId135"/>
-    <sheet name="GHG_Emissions_1885Z CN" sheetId="136" r:id="rId136"/>
-    <sheet name="GHG_Emissions_1766130D CN" sheetId="137" r:id="rId137"/>
-    <sheet name="GHG_Emissions_SLB US" sheetId="138" r:id="rId138"/>
-    <sheet name="GHG_Emissions_APD US" sheetId="139" r:id="rId139"/>
-    <sheet name="GHG_Emissions_HAL US" sheetId="140" r:id="rId140"/>
-    <sheet name="GHG_Emissions_WDS AU" sheetId="141" r:id="rId141"/>
-    <sheet name="GHG_Emissions_0629015D CN" sheetId="142" r:id="rId142"/>
-    <sheet name="GHG_Emissions_3592321Z CN" sheetId="143" r:id="rId143"/>
-    <sheet name="GHG_Emissions_OXY US" sheetId="144" r:id="rId144"/>
-    <sheet name="GHG_Emissions_IFC CN" sheetId="145" r:id="rId145"/>
-    <sheet name="GHG_Emissions_0630082D CN" sheetId="146" r:id="rId146"/>
-    <sheet name="GHG_Emissions_FFH CN" sheetId="147" r:id="rId147"/>
-    <sheet name="GHG_Emissions_TD CN" sheetId="148" r:id="rId148"/>
-    <sheet name="GHG_Emissions_BN CN" sheetId="149" r:id="rId149"/>
-    <sheet name="GHG_Emissions_CIVI US" sheetId="150" r:id="rId150"/>
-    <sheet name="GHG_Emissions_0555061D US" sheetId="151" r:id="rId151"/>
-    <sheet name="GHG_Emissions_0148238D CN" sheetId="152" r:id="rId152"/>
-    <sheet name="GHG_Emissions_ECOPETL CB" sheetId="153" r:id="rId153"/>
-    <sheet name="GHG_Emissions_EQNR NO" sheetId="154" r:id="rId154"/>
-    <sheet name="GHG_Emissions_3033433Z US" sheetId="155" r:id="rId155"/>
-    <sheet name="GHG_Emissions_WCP CN" sheetId="156" r:id="rId156"/>
+    <sheet name="GHG_Emissions_PXD US" sheetId="32" r:id="rId32"/>
+    <sheet name="GHG_Emissions_FRU CN" sheetId="33" r:id="rId33"/>
+    <sheet name="GHG_Emissions_MRO US" sheetId="34" r:id="rId34"/>
+    <sheet name="GHG_Emissions_ENB CN" sheetId="35" r:id="rId35"/>
+    <sheet name="GHG_Emissions_VET CN" sheetId="36" r:id="rId36"/>
+    <sheet name="GHG_Emissions_1756679D CN" sheetId="37" r:id="rId37"/>
+    <sheet name="GHG_Emissions_OKE US" sheetId="38" r:id="rId38"/>
+    <sheet name="GHG_Emissions_LNG US" sheetId="39" r:id="rId39"/>
+    <sheet name="GHG_Emissions_ERF CN" sheetId="40" r:id="rId40"/>
+    <sheet name="GHG_Emissions_0133955D CN" sheetId="41" r:id="rId41"/>
+    <sheet name="GHG_Emissions_VST US" sheetId="42" r:id="rId42"/>
+    <sheet name="GHG_Emissions_KMI US" sheetId="43" r:id="rId43"/>
+    <sheet name="GHG_Emissions_CVE CN" sheetId="44" r:id="rId44"/>
+    <sheet name="GHG_Emissions_125300Z CN" sheetId="45" r:id="rId45"/>
+    <sheet name="GHG_Emissions_D US" sheetId="46" r:id="rId46"/>
+    <sheet name="GHG_Emissions_601600 CH" sheetId="47" r:id="rId47"/>
+    <sheet name="GHG_Emissions_AES US" sheetId="48" r:id="rId48"/>
+    <sheet name="GHG_Emissions_FANG US" sheetId="49" r:id="rId49"/>
+    <sheet name="GHG_Emissions_ETRN US" sheetId="50" r:id="rId50"/>
+    <sheet name="GHG_Emissions_TOU CN" sheetId="51" r:id="rId51"/>
+    <sheet name="GHG_Emissions_PPL CN" sheetId="52" r:id="rId52"/>
+    <sheet name="GHG_Emissions_MPC US" sheetId="53" r:id="rId53"/>
+    <sheet name="GHG_Emissions_NVA CN" sheetId="54" r:id="rId54"/>
+    <sheet name="GHG_Emissions_SRE US" sheetId="55" r:id="rId55"/>
+    <sheet name="GHG_Emissions_2131499D CN" sheetId="56" r:id="rId56"/>
+    <sheet name="GHG_Emissions_SWN US" sheetId="57" r:id="rId57"/>
+    <sheet name="GHG_Emissions_2684630Z CN" sheetId="58" r:id="rId58"/>
+    <sheet name="GHG_Emissions_PETR4 BZ" sheetId="59" r:id="rId59"/>
+    <sheet name="GHG_Emissions_2158975D MM" sheetId="60" r:id="rId60"/>
+    <sheet name="GHG_Emissions_1628981D CN" sheetId="61" r:id="rId61"/>
+    <sheet name="GHG_Emissions_7662727Z CN" sheetId="62" r:id="rId62"/>
+    <sheet name="GHG_Emissions_CM CN" sheetId="63" r:id="rId63"/>
+    <sheet name="GHG_Emissions_KNOCPZ KS" sheetId="64" r:id="rId64"/>
+    <sheet name="GHG_Emissions_EQT US" sheetId="65" r:id="rId65"/>
+    <sheet name="GHG_Emissions_DUK US" sheetId="66" r:id="rId66"/>
+    <sheet name="GHG_Emissions_DTE US" sheetId="67" r:id="rId67"/>
+    <sheet name="GHG_Emissions_CLR US" sheetId="68" r:id="rId68"/>
+    <sheet name="GHG_Emissions_AEE US" sheetId="69" r:id="rId69"/>
+    <sheet name="GHG_Emissions_ET US" sheetId="70" r:id="rId70"/>
+    <sheet name="GHG_Emissions_120537Z CN" sheetId="71" r:id="rId71"/>
+    <sheet name="GHG_Emissions_RDSA LN" sheetId="72" r:id="rId72"/>
+    <sheet name="GHG_Emissions_0181220D CN" sheetId="73" r:id="rId73"/>
+    <sheet name="GHG_Emissions_1272320D US" sheetId="74" r:id="rId74"/>
+    <sheet name="GHG_Emissions_TRP CN" sheetId="75" r:id="rId75"/>
+    <sheet name="GHG_Emissions_SO US" sheetId="76" r:id="rId76"/>
+    <sheet name="GHG_Emissions_IMO CN" sheetId="77" r:id="rId77"/>
+    <sheet name="GHG_Emissions_POU CN" sheetId="78" r:id="rId78"/>
+    <sheet name="GHG_Emissions_FNV CN" sheetId="79" r:id="rId79"/>
+    <sheet name="GHG_Emissions_SHEL LN" sheetId="80" r:id="rId80"/>
+    <sheet name="GHG_Emissions_LNT US" sheetId="81" r:id="rId81"/>
+    <sheet name="GHG_Emissions_BATL US" sheetId="82" r:id="rId82"/>
+    <sheet name="GHG_Emissions_CVX US" sheetId="83" r:id="rId83"/>
+    <sheet name="GHG_Emissions_ENEL IM" sheetId="84" r:id="rId84"/>
+    <sheet name="GHG_Emissions_CNQ CN" sheetId="85" r:id="rId85"/>
+    <sheet name="GHG_Emissions_BMO CN" sheetId="86" r:id="rId86"/>
+    <sheet name="GHG_Emissions_SU CN" sheetId="87" r:id="rId87"/>
+    <sheet name="GHG_Emissions_62647Z LN" sheetId="88" r:id="rId88"/>
+    <sheet name="GHG_Emissions_BRK-B US" sheetId="89" r:id="rId89"/>
+    <sheet name="GHG_Emissions_8001 JP" sheetId="90" r:id="rId90"/>
+    <sheet name="GHG_Emissions_BNS CN" sheetId="91" r:id="rId91"/>
+    <sheet name="GHG_Emissions_RY CN" sheetId="92" r:id="rId92"/>
+    <sheet name="GHG_Emissions_NWR CN" sheetId="93" r:id="rId93"/>
+    <sheet name="GHG_Emissions_VLO US" sheetId="94" r:id="rId94"/>
+    <sheet name="GHG_Emissions_BIR CN" sheetId="95" r:id="rId95"/>
+    <sheet name="GHG_Emissions_ENI IM" sheetId="96" r:id="rId96"/>
+    <sheet name="GHG_Emissions_SLF CN" sheetId="97" r:id="rId97"/>
+    <sheet name="GHG_Emissions_1487407D CN" sheetId="98" r:id="rId98"/>
+    <sheet name="GHG_Emissions_POW CN" sheetId="99" r:id="rId99"/>
+    <sheet name="GHG_Emissions_3478182Z US" sheetId="100" r:id="rId100"/>
+    <sheet name="GHG_Emissions_WEC US" sheetId="101" r:id="rId101"/>
+    <sheet name="GHG_Emissions_CRGY US" sheetId="102" r:id="rId102"/>
+    <sheet name="GHG_Emissions_PEG US" sheetId="103" r:id="rId103"/>
+    <sheet name="GHG_Emissions_GALP PL" sheetId="104" r:id="rId104"/>
+    <sheet name="GHG_Emissions_TPZ CN" sheetId="105" r:id="rId105"/>
+    <sheet name="GHG_Emissions_NA CN" sheetId="106" r:id="rId106"/>
+    <sheet name="GHG_Emissions_804652Z CN" sheetId="107" r:id="rId107"/>
+    <sheet name="GHG_Emissions_BRY US" sheetId="108" r:id="rId108"/>
+    <sheet name="GHG_Emissions_PEY CN" sheetId="109" r:id="rId109"/>
+    <sheet name="GHG_Emissions_3244814Z CN" sheetId="110" r:id="rId110"/>
+    <sheet name="GHG_Emissions_ARX CN" sheetId="111" r:id="rId111"/>
+    <sheet name="GHG_Emissions_LGCY US" sheetId="112" r:id="rId112"/>
+    <sheet name="GHG_Emissions_EMA CN" sheetId="113" r:id="rId113"/>
+    <sheet name="GHG_Emissions_TRGP US" sheetId="114" r:id="rId114"/>
+    <sheet name="GHG_Emissions_1911116D CN" sheetId="115" r:id="rId115"/>
+    <sheet name="GHG_Emissions_DVN US" sheetId="116" r:id="rId116"/>
+    <sheet name="GHG_Emissions_FTS CN" sheetId="117" r:id="rId117"/>
+    <sheet name="GHG_Emissions_OGE US" sheetId="118" r:id="rId118"/>
+    <sheet name="GHG_Emissions_1216765D US" sheetId="119" r:id="rId119"/>
+    <sheet name="GHG_Emissions_EOG US" sheetId="120" r:id="rId120"/>
+    <sheet name="GHG_Emissions_5981426Z CN" sheetId="121" r:id="rId121"/>
+    <sheet name="GHG_Emissions_OVV US" sheetId="122" r:id="rId122"/>
+    <sheet name="GHG_Emissions_XEL US" sheetId="123" r:id="rId123"/>
+    <sheet name="GHG_Emissions_CMS US" sheetId="124" r:id="rId124"/>
+    <sheet name="GHG_Emissions_FE US" sheetId="125" r:id="rId125"/>
+    <sheet name="GHG_Emissions_TVE CN" sheetId="126" r:id="rId126"/>
+    <sheet name="GHG_Emissions_CPG CN" sheetId="127" r:id="rId127"/>
+    <sheet name="GHG_Emissions_TECK-B CN" sheetId="128" r:id="rId128"/>
+    <sheet name="GHG_Emissions_TTE FP" sheetId="129" r:id="rId129"/>
+    <sheet name="GHG_Emissions_NRG US" sheetId="130" r:id="rId130"/>
+    <sheet name="GHG_Emissions_3682Z CN" sheetId="131" r:id="rId131"/>
+    <sheet name="GHG_Emissions_AEP US" sheetId="132" r:id="rId132"/>
+    <sheet name="GHG_Emissions_HES US" sheetId="133" r:id="rId133"/>
+    <sheet name="GHG_Emissions_1885Z CN" sheetId="134" r:id="rId134"/>
+    <sheet name="GHG_Emissions_1766130D CN" sheetId="135" r:id="rId135"/>
+    <sheet name="GHG_Emissions_SLB US" sheetId="136" r:id="rId136"/>
+    <sheet name="GHG_Emissions_APD US" sheetId="137" r:id="rId137"/>
+    <sheet name="GHG_Emissions_HAL US" sheetId="138" r:id="rId138"/>
+    <sheet name="GHG_Emissions_WDS AU" sheetId="139" r:id="rId139"/>
+    <sheet name="GHG_Emissions_0629015D CN" sheetId="140" r:id="rId140"/>
+    <sheet name="GHG_Emissions_3592321Z CN" sheetId="141" r:id="rId141"/>
+    <sheet name="GHG_Emissions_OXY US" sheetId="142" r:id="rId142"/>
+    <sheet name="GHG_Emissions_IFC CN" sheetId="143" r:id="rId143"/>
+    <sheet name="GHG_Emissions_0630082D CN" sheetId="144" r:id="rId144"/>
+    <sheet name="GHG_Emissions_FFH CN" sheetId="145" r:id="rId145"/>
+    <sheet name="GHG_Emissions_TD CN" sheetId="146" r:id="rId146"/>
+    <sheet name="GHG_Emissions_BN CN" sheetId="147" r:id="rId147"/>
+    <sheet name="GHG_Emissions_CIVI US" sheetId="148" r:id="rId148"/>
+    <sheet name="GHG_Emissions_0555061D US" sheetId="149" r:id="rId149"/>
+    <sheet name="GHG_Emissions_0148238D CN" sheetId="150" r:id="rId150"/>
+    <sheet name="GHG_Emissions_ECOPETL CB" sheetId="151" r:id="rId151"/>
+    <sheet name="GHG_Emissions_EQNR NO" sheetId="152" r:id="rId152"/>
+    <sheet name="GHG_Emissions_3033433Z US" sheetId="153" r:id="rId153"/>
+    <sheet name="GHG_Emissions_WCP CN" sheetId="154" r:id="rId154"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="335">
   <si>
     <t>TICKER + FINANCIAL YEAR</t>
   </si>
@@ -444,12 +442,6 @@
     <t>SECURE ENERGY SERVICES INC</t>
   </si>
   <si>
-    <t>SOL SJ 2022</t>
-  </si>
-  <si>
-    <t>SASOL LTD</t>
-  </si>
-  <si>
     <t>PXD US 2022</t>
   </si>
   <si>
@@ -480,12 +472,6 @@
     <t>VERMILION ENERGY INC</t>
   </si>
   <si>
-    <t>EPD US 2022</t>
-  </si>
-  <si>
-    <t>ENTERPRISE PRODUCTS PARTNERS</t>
-  </si>
-  <si>
     <t>1756679D CN 2022</t>
   </si>
   <si>
@@ -891,10 +877,10 @@
     <t>GALP ENERGIA SGPS SA</t>
   </si>
   <si>
-    <t>58325Z NL 2022</t>
-  </si>
-  <si>
-    <t>NIGERIAN NATIONAL PETROLEUM</t>
+    <t>TPZ CN 2022</t>
+  </si>
+  <si>
+    <t>TOPAZ ENERGY CORP</t>
   </si>
   <si>
     <t>NA CN 2022</t>
@@ -957,18 +943,18 @@
     <t>STRATHCONA RESOURCES LTD</t>
   </si>
   <si>
+    <t>DVN US 2022</t>
+  </si>
+  <si>
+    <t>DEVON ENERGY CORP</t>
+  </si>
+  <si>
     <t>FTS CN 2022</t>
   </si>
   <si>
     <t>FORTIS INC</t>
   </si>
   <si>
-    <t>IENOVA* MM 2022</t>
-  </si>
-  <si>
-    <t>INFRAESTRUCTURA ENERGETICA N</t>
-  </si>
-  <si>
     <t>OGE US 2022</t>
   </si>
   <si>
@@ -1072,9 +1058,6 @@
   </si>
   <si>
     <t>1766130D CN 2022</t>
-  </si>
-  <si>
-    <t>TOPAZ ENERGY CORP</t>
   </si>
   <si>
     <t>SLB US 2022</t>
@@ -1970,15 +1953,6 @@
       <c r="X2" t="s">
         <v>227</v>
       </c>
-      <c r="AA2">
-        <v>2556</v>
-      </c>
-      <c r="AB2">
-        <v>48</v>
-      </c>
-      <c r="AC2">
-        <v>5720</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2087,58 +2061,37 @@
         <v>228</v>
       </c>
       <c r="B2">
-        <v>11.822</v>
+        <v>18871</v>
       </c>
       <c r="C2">
-        <v>15.477</v>
-      </c>
-      <c r="D2">
-        <v>74.97499999999999</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="H2">
-        <v>0.0117</v>
-      </c>
-      <c r="I2">
-        <v>0.802</v>
-      </c>
-      <c r="J2">
-        <v>5.74</v>
-      </c>
-      <c r="L2">
-        <v>8.581099999999999</v>
-      </c>
-      <c r="S2">
-        <v>57.8</v>
+        <v>231</v>
       </c>
       <c r="U2">
-        <v>46425.517</v>
+        <v>47109.8416</v>
       </c>
       <c r="V2">
-        <v>48695</v>
+        <v>9597.4</v>
       </c>
       <c r="W2">
-        <v>21246.517</v>
+        <v>29575.1416</v>
       </c>
       <c r="X2" t="s">
         <v>229</v>
       </c>
       <c r="Y2">
-        <v>670.6</v>
+        <v>315.4</v>
       </c>
       <c r="Z2">
-        <v>31.85</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="AA2">
-        <v>15374</v>
+        <v>17323.9</v>
       </c>
       <c r="AB2">
-        <v>9848</v>
+        <v>28.9</v>
       </c>
       <c r="AC2">
-        <v>704401</v>
+        <v>41872.1</v>
       </c>
     </row>
   </sheetData>
@@ -2247,8 +2200,38 @@
       <c r="A2" t="s">
         <v>230</v>
       </c>
+      <c r="B2">
+        <v>1123.25</v>
+      </c>
+      <c r="C2">
+        <v>857.825</v>
+      </c>
+      <c r="U2">
+        <v>3273.9496</v>
+      </c>
+      <c r="V2">
+        <v>3057.065</v>
+      </c>
+      <c r="W2">
+        <v>2001.4606</v>
+      </c>
       <c r="X2" t="s">
         <v>231</v>
+      </c>
+      <c r="Y2">
+        <v>168.722</v>
+      </c>
+      <c r="Z2">
+        <v>11.99</v>
+      </c>
+      <c r="AA2">
+        <v>1258.311</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>6019.849</v>
       </c>
     </row>
   </sheetData>
@@ -2358,37 +2341,37 @@
         <v>232</v>
       </c>
       <c r="B2">
-        <v>18871</v>
+        <v>1878.39</v>
       </c>
       <c r="C2">
-        <v>231</v>
+        <v>990.221</v>
       </c>
       <c r="U2">
-        <v>47109.8416</v>
+        <v>50425.19</v>
       </c>
       <c r="V2">
-        <v>9597.4</v>
+        <v>9800</v>
       </c>
       <c r="W2">
-        <v>29575.1416</v>
+        <v>30451.19</v>
       </c>
       <c r="X2" t="s">
         <v>233</v>
       </c>
       <c r="Y2">
-        <v>315.4</v>
+        <v>498</v>
       </c>
       <c r="Z2">
-        <v>93.76000000000001</v>
+        <v>61.27</v>
       </c>
       <c r="AA2">
-        <v>17323.9</v>
+        <v>20439</v>
       </c>
       <c r="AB2">
-        <v>28.9</v>
+        <v>465</v>
       </c>
       <c r="AC2">
-        <v>41872.1</v>
+        <v>48718</v>
       </c>
     </row>
   </sheetData>
@@ -2498,37 +2481,67 @@
         <v>234</v>
       </c>
       <c r="B2">
-        <v>1123.25</v>
+        <v>3442.51</v>
       </c>
       <c r="C2">
-        <v>857.825</v>
+        <v>55.507</v>
+      </c>
+      <c r="D2">
+        <v>46845.301</v>
+      </c>
+      <c r="E2">
+        <v>4656.3301</v>
+      </c>
+      <c r="G2">
+        <v>1024.71</v>
+      </c>
+      <c r="H2">
+        <v>526.38</v>
+      </c>
+      <c r="J2">
+        <v>2.352</v>
+      </c>
+      <c r="M2">
+        <v>88.2</v>
+      </c>
+      <c r="N2">
+        <v>1338.23</v>
+      </c>
+      <c r="O2">
+        <v>38609.1016</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>600</v>
       </c>
       <c r="U2">
-        <v>3273.9496</v>
+        <v>14031.5566</v>
       </c>
       <c r="V2">
-        <v>3057.065</v>
+        <v>26840</v>
       </c>
       <c r="W2">
-        <v>2001.4606</v>
+        <v>10278.5566</v>
       </c>
       <c r="X2" t="s">
         <v>235</v>
       </c>
       <c r="Y2">
-        <v>168.722</v>
+        <v>815.1115</v>
       </c>
       <c r="Z2">
-        <v>11.99</v>
+        <v>12.61</v>
       </c>
       <c r="AA2">
-        <v>1258.311</v>
+        <v>5264</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2467</v>
       </c>
       <c r="AC2">
-        <v>6019.849</v>
+        <v>16096</v>
       </c>
     </row>
   </sheetData>
@@ -2638,37 +2651,46 @@
         <v>236</v>
       </c>
       <c r="B2">
-        <v>1878.39</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>990.221</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>171.816</v>
+      </c>
+      <c r="J2">
+        <v>0.049</v>
+      </c>
+      <c r="S2">
+        <v>171.767</v>
       </c>
       <c r="U2">
-        <v>50425.19</v>
+        <v>3511.7545</v>
       </c>
       <c r="V2">
-        <v>9800</v>
+        <v>367.901</v>
       </c>
       <c r="W2">
-        <v>30451.19</v>
+        <v>3047.1705</v>
       </c>
       <c r="X2" t="s">
         <v>237</v>
       </c>
       <c r="Y2">
-        <v>498</v>
+        <v>142.5459</v>
       </c>
       <c r="Z2">
-        <v>61.27</v>
+        <v>21.13</v>
       </c>
       <c r="AA2">
-        <v>20439</v>
+        <v>464.584</v>
       </c>
       <c r="AB2">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>48718</v>
+        <v>1835.732</v>
       </c>
     </row>
   </sheetData>
@@ -2778,67 +2800,55 @@
         <v>238</v>
       </c>
       <c r="B2">
-        <v>3442.51</v>
+        <v>2.484</v>
       </c>
       <c r="C2">
-        <v>55.507</v>
+        <v>12.039</v>
       </c>
       <c r="D2">
-        <v>46845.301</v>
+        <v>3.471</v>
       </c>
       <c r="E2">
-        <v>4656.3301</v>
+        <v>31.996</v>
       </c>
       <c r="G2">
-        <v>1024.71</v>
+        <v>6.099</v>
       </c>
       <c r="H2">
-        <v>526.38</v>
+        <v>6.72</v>
+      </c>
+      <c r="I2">
+        <v>0.012</v>
       </c>
       <c r="J2">
-        <v>2.352</v>
-      </c>
-      <c r="M2">
-        <v>88.2</v>
-      </c>
-      <c r="N2">
-        <v>1338.23</v>
-      </c>
-      <c r="O2">
-        <v>38609.1016</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>600</v>
-      </c>
-      <c r="U2">
-        <v>14031.5566</v>
+        <v>3.344</v>
+      </c>
+      <c r="K2">
+        <v>15.817</v>
       </c>
       <c r="V2">
-        <v>26840</v>
+        <v>9934</v>
       </c>
       <c r="W2">
-        <v>10278.5566</v>
+        <v>31221.3463</v>
       </c>
       <c r="X2" t="s">
         <v>239</v>
       </c>
       <c r="Y2">
-        <v>815.1115</v>
+        <v>337.099</v>
       </c>
       <c r="Z2">
-        <v>12.61</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="AA2">
-        <v>5264</v>
+        <v>56789</v>
       </c>
       <c r="AB2">
-        <v>2467</v>
+        <v>58356</v>
       </c>
       <c r="AC2">
-        <v>16096</v>
+        <v>403740</v>
       </c>
     </row>
   </sheetData>
@@ -3057,56 +3067,32 @@
       <c r="A2" t="s">
         <v>242</v>
       </c>
-      <c r="B2">
-        <v>2.484</v>
-      </c>
-      <c r="C2">
-        <v>12.039</v>
-      </c>
-      <c r="D2">
-        <v>3.471</v>
-      </c>
-      <c r="E2">
-        <v>31.996</v>
-      </c>
-      <c r="G2">
-        <v>6.099</v>
-      </c>
-      <c r="H2">
-        <v>6.72</v>
-      </c>
-      <c r="I2">
-        <v>0.012</v>
-      </c>
-      <c r="J2">
-        <v>3.344</v>
-      </c>
-      <c r="K2">
-        <v>15.817</v>
+      <c r="U2">
+        <v>955.625</v>
       </c>
       <c r="V2">
-        <v>9934</v>
+        <v>918.341</v>
       </c>
       <c r="W2">
-        <v>31221.3463</v>
+        <v>606.14</v>
       </c>
       <c r="X2" t="s">
         <v>243</v>
       </c>
       <c r="Y2">
-        <v>337.099</v>
+        <v>78.517</v>
       </c>
       <c r="Z2">
-        <v>92.76000000000001</v>
+        <v>8</v>
       </c>
       <c r="AA2">
-        <v>56789</v>
+        <v>395.735</v>
       </c>
       <c r="AB2">
-        <v>58356</v>
+        <v>46.25</v>
       </c>
       <c r="AC2">
-        <v>403740</v>
+        <v>1631.03</v>
       </c>
     </row>
   </sheetData>
@@ -3215,8 +3201,38 @@
       <c r="A2" t="s">
         <v>244</v>
       </c>
+      <c r="B2">
+        <v>685.954</v>
+      </c>
+      <c r="C2">
+        <v>27.827</v>
+      </c>
+      <c r="U2">
+        <v>3258.6433</v>
+      </c>
+      <c r="V2">
+        <v>1133.507</v>
+      </c>
+      <c r="W2">
+        <v>2406.0323</v>
+      </c>
       <c r="X2" t="s">
         <v>245</v>
+      </c>
+      <c r="Y2">
+        <v>170.7395</v>
+      </c>
+      <c r="Z2">
+        <v>13.87</v>
+      </c>
+      <c r="AA2">
+        <v>864.516</v>
+      </c>
+      <c r="AB2">
+        <v>11.905</v>
+      </c>
+      <c r="AC2">
+        <v>4012.523</v>
       </c>
     </row>
   </sheetData>
@@ -3471,32 +3487,8 @@
       <c r="A2" t="s">
         <v>246</v>
       </c>
-      <c r="U2">
-        <v>955.625</v>
-      </c>
-      <c r="V2">
-        <v>918.341</v>
-      </c>
-      <c r="W2">
-        <v>606.14</v>
-      </c>
       <c r="X2" t="s">
         <v>247</v>
-      </c>
-      <c r="Y2">
-        <v>78.517</v>
-      </c>
-      <c r="Z2">
-        <v>8</v>
-      </c>
-      <c r="AA2">
-        <v>395.735</v>
-      </c>
-      <c r="AB2">
-        <v>46.25</v>
-      </c>
-      <c r="AC2">
-        <v>1631.03</v>
       </c>
     </row>
   </sheetData>
@@ -3606,37 +3598,37 @@
         <v>248</v>
       </c>
       <c r="B2">
-        <v>685.954</v>
+        <v>1827.98</v>
       </c>
       <c r="C2">
-        <v>27.827</v>
+        <v>49.941</v>
       </c>
       <c r="U2">
-        <v>3258.6433</v>
+        <v>13059.625</v>
       </c>
       <c r="V2">
-        <v>1133.507</v>
+        <v>8641.200000000001</v>
       </c>
       <c r="W2">
-        <v>2406.0323</v>
+        <v>11331.425</v>
       </c>
       <c r="X2" t="s">
         <v>249</v>
       </c>
       <c r="Y2">
-        <v>170.7395</v>
+        <v>661.232</v>
       </c>
       <c r="Z2">
-        <v>13.87</v>
+        <v>18.25</v>
       </c>
       <c r="AA2">
-        <v>864.516</v>
+        <v>1785.3</v>
       </c>
       <c r="AB2">
-        <v>11.905</v>
+        <v>57.1</v>
       </c>
       <c r="AC2">
-        <v>4012.523</v>
+        <v>11623.9</v>
       </c>
     </row>
   </sheetData>
@@ -3856,37 +3848,46 @@
         <v>252</v>
       </c>
       <c r="B2">
-        <v>1827.98</v>
+        <v>14923.6</v>
       </c>
       <c r="C2">
-        <v>49.941</v>
+        <v>1.627</v>
+      </c>
+      <c r="D2">
+        <v>8810.77</v>
+      </c>
+      <c r="G2">
+        <v>1096.8</v>
+      </c>
+      <c r="O2">
+        <v>7713.9702</v>
       </c>
       <c r="U2">
-        <v>13059.625</v>
+        <v>34201.9125</v>
       </c>
       <c r="V2">
-        <v>8641.200000000001</v>
+        <v>7588</v>
       </c>
       <c r="W2">
-        <v>11331.425</v>
+        <v>13969.9125</v>
       </c>
       <c r="X2" t="s">
         <v>253</v>
       </c>
       <c r="Y2">
-        <v>661.232</v>
+        <v>266</v>
       </c>
       <c r="Z2">
-        <v>18.25</v>
+        <v>51.75</v>
       </c>
       <c r="AA2">
-        <v>1785.3</v>
+        <v>19106</v>
       </c>
       <c r="AB2">
-        <v>57.1</v>
+        <v>310</v>
       </c>
       <c r="AC2">
-        <v>11623.9</v>
+        <v>39742</v>
       </c>
     </row>
   </sheetData>
@@ -3995,8 +3996,44 @@
       <c r="A2" t="s">
         <v>254</v>
       </c>
+      <c r="B2">
+        <v>8400</v>
+      </c>
+      <c r="C2">
+        <v>3300</v>
+      </c>
+      <c r="D2">
+        <v>32600</v>
+      </c>
+      <c r="O2">
+        <v>32600</v>
+      </c>
+      <c r="U2">
+        <v>30291.0038</v>
+      </c>
+      <c r="V2">
+        <v>20929.8</v>
+      </c>
+      <c r="W2">
+        <v>16614.1038</v>
+      </c>
       <c r="X2" t="s">
         <v>255</v>
+      </c>
+      <c r="Y2">
+        <v>227.3</v>
+      </c>
+      <c r="Z2">
+        <v>73.5</v>
+      </c>
+      <c r="AA2">
+        <v>11579.4</v>
+      </c>
+      <c r="AB2">
+        <v>219</v>
+      </c>
+      <c r="AC2">
+        <v>19560</v>
       </c>
     </row>
   </sheetData>
@@ -4105,47 +4142,8 @@
       <c r="A2" t="s">
         <v>256</v>
       </c>
-      <c r="B2">
-        <v>14923.6</v>
-      </c>
-      <c r="C2">
-        <v>1.627</v>
-      </c>
-      <c r="D2">
-        <v>8810.77</v>
-      </c>
-      <c r="G2">
-        <v>1096.8</v>
-      </c>
-      <c r="O2">
-        <v>7713.9702</v>
-      </c>
-      <c r="U2">
-        <v>34201.9125</v>
-      </c>
-      <c r="V2">
-        <v>7588</v>
-      </c>
-      <c r="W2">
-        <v>13969.9125</v>
-      </c>
       <c r="X2" t="s">
         <v>257</v>
-      </c>
-      <c r="Y2">
-        <v>266</v>
-      </c>
-      <c r="Z2">
-        <v>51.75</v>
-      </c>
-      <c r="AA2">
-        <v>19106</v>
-      </c>
-      <c r="AB2">
-        <v>310</v>
-      </c>
-      <c r="AC2">
-        <v>39742</v>
       </c>
     </row>
   </sheetData>
@@ -4255,43 +4253,43 @@
         <v>258</v>
       </c>
       <c r="B2">
-        <v>8400</v>
+        <v>4589.5</v>
       </c>
       <c r="C2">
-        <v>3300</v>
+        <v>390</v>
       </c>
       <c r="D2">
-        <v>32600</v>
+        <v>90000</v>
       </c>
       <c r="O2">
-        <v>32600</v>
+        <v>90000</v>
       </c>
       <c r="U2">
-        <v>30291.0038</v>
+        <v>45559.03</v>
       </c>
       <c r="V2">
-        <v>20929.8</v>
+        <v>19169</v>
       </c>
       <c r="W2">
-        <v>16614.1038</v>
+        <v>40166.03</v>
       </c>
       <c r="X2" t="s">
         <v>259</v>
       </c>
       <c r="Y2">
-        <v>227.3</v>
+        <v>651</v>
       </c>
       <c r="Z2">
-        <v>73.5</v>
+        <v>61.51</v>
       </c>
       <c r="AA2">
-        <v>11579.4</v>
+        <v>6718</v>
       </c>
       <c r="AB2">
-        <v>219</v>
+        <v>1454</v>
       </c>
       <c r="AC2">
-        <v>19560</v>
+        <v>23721</v>
       </c>
     </row>
   </sheetData>
@@ -4400,8 +4398,47 @@
       <c r="A2" t="s">
         <v>260</v>
       </c>
+      <c r="B2">
+        <v>8748</v>
+      </c>
+      <c r="C2">
+        <v>179</v>
+      </c>
+      <c r="D2">
+        <v>107770</v>
+      </c>
+      <c r="G2">
+        <v>96061</v>
+      </c>
+      <c r="O2">
+        <v>11709</v>
+      </c>
+      <c r="U2">
+        <v>58395.596</v>
+      </c>
+      <c r="V2">
+        <v>11043</v>
+      </c>
+      <c r="W2">
+        <v>26125.596</v>
+      </c>
       <c r="X2" t="s">
         <v>261</v>
+      </c>
+      <c r="Y2">
+        <v>478.6</v>
+      </c>
+      <c r="Z2">
+        <v>54.18</v>
+      </c>
+      <c r="AA2">
+        <v>29044</v>
+      </c>
+      <c r="AB2">
+        <v>209</v>
+      </c>
+      <c r="AC2">
+        <v>64252</v>
       </c>
     </row>
   </sheetData>
@@ -4511,46 +4548,43 @@
         <v>262</v>
       </c>
       <c r="B2">
-        <v>8748</v>
+        <v>10004.7</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="D2">
-        <v>107770</v>
+        <v>8624</v>
       </c>
       <c r="G2">
-        <v>96061</v>
-      </c>
-      <c r="O2">
-        <v>11709</v>
+        <v>8624</v>
       </c>
       <c r="U2">
-        <v>58395.596</v>
+        <v>12413.21</v>
       </c>
       <c r="V2">
-        <v>11043</v>
+        <v>3375.7</v>
       </c>
       <c r="W2">
-        <v>26125.596</v>
+        <v>7917.91</v>
       </c>
       <c r="X2" t="s">
         <v>263</v>
       </c>
       <c r="Y2">
-        <v>478.6</v>
+        <v>200.2</v>
       </c>
       <c r="Z2">
-        <v>54.18</v>
+        <v>39.55</v>
       </c>
       <c r="AA2">
-        <v>29044</v>
+        <v>4583.4</v>
       </c>
       <c r="AB2">
-        <v>209</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AC2">
-        <v>64252</v>
+        <v>12544.7</v>
       </c>
     </row>
   </sheetData>
@@ -4928,43 +4962,43 @@
         <v>266</v>
       </c>
       <c r="B2">
-        <v>10004.7</v>
+        <v>5058.84</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>391.603</v>
       </c>
       <c r="D2">
-        <v>8624</v>
-      </c>
-      <c r="G2">
-        <v>8624</v>
+        <v>110291</v>
+      </c>
+      <c r="O2">
+        <v>110291</v>
       </c>
       <c r="U2">
-        <v>12413.21</v>
+        <v>76104.4476</v>
       </c>
       <c r="V2">
-        <v>3375.7</v>
+        <v>25702</v>
       </c>
       <c r="W2">
-        <v>7917.91</v>
+        <v>76118.4476</v>
       </c>
       <c r="X2" t="s">
         <v>267</v>
       </c>
       <c r="Y2">
-        <v>200.2</v>
+        <v>583</v>
       </c>
       <c r="Z2">
-        <v>39.55</v>
+        <v>129.52</v>
       </c>
       <c r="AA2">
-        <v>4583.4</v>
+        <v>5958</v>
       </c>
       <c r="AB2">
-        <v>88.09999999999999</v>
+        <v>5972</v>
       </c>
       <c r="AC2">
-        <v>12544.7</v>
+        <v>41371</v>
       </c>
     </row>
   </sheetData>
@@ -5184,43 +5218,37 @@
         <v>270</v>
       </c>
       <c r="B2">
-        <v>5058.84</v>
+        <v>3392.28</v>
       </c>
       <c r="C2">
-        <v>391.603</v>
-      </c>
-      <c r="D2">
-        <v>110291</v>
-      </c>
-      <c r="O2">
-        <v>110291</v>
+        <v>346.434</v>
       </c>
       <c r="U2">
-        <v>76104.4476</v>
+        <v>16947.447</v>
       </c>
       <c r="V2">
-        <v>25702</v>
+        <v>12464</v>
       </c>
       <c r="W2">
-        <v>76118.4476</v>
+        <v>12459.447</v>
       </c>
       <c r="X2" t="s">
         <v>271</v>
       </c>
       <c r="Y2">
-        <v>583</v>
+        <v>253.6</v>
       </c>
       <c r="Z2">
-        <v>129.52</v>
+        <v>50.71</v>
       </c>
       <c r="AA2">
-        <v>5958</v>
+        <v>4493</v>
       </c>
       <c r="AB2">
-        <v>5972</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>41371</v>
+        <v>15056</v>
       </c>
     </row>
   </sheetData>
@@ -5329,8 +5357,47 @@
       <c r="A2" t="s">
         <v>272</v>
       </c>
+      <c r="B2">
+        <v>37960</v>
+      </c>
+      <c r="C2">
+        <v>740</v>
+      </c>
+      <c r="D2">
+        <v>24260</v>
+      </c>
+      <c r="H2">
+        <v>310</v>
+      </c>
+      <c r="T2">
+        <v>23950</v>
+      </c>
+      <c r="U2">
+        <v>64451.9148</v>
+      </c>
+      <c r="V2">
+        <v>15310</v>
+      </c>
+      <c r="W2">
+        <v>38530.9148</v>
+      </c>
       <c r="X2" t="s">
         <v>273</v>
+      </c>
+      <c r="Y2">
+        <v>547</v>
+      </c>
+      <c r="Z2">
+        <v>70.11</v>
+      </c>
+      <c r="AA2">
+        <v>26032</v>
+      </c>
+      <c r="AB2">
+        <v>111</v>
+      </c>
+      <c r="AC2">
+        <v>61188</v>
       </c>
     </row>
   </sheetData>
@@ -5440,37 +5507,67 @@
         <v>274</v>
       </c>
       <c r="B2">
-        <v>3392.28</v>
+        <v>17674.801</v>
       </c>
       <c r="C2">
-        <v>346.434</v>
+        <v>13.145</v>
+      </c>
+      <c r="D2">
+        <v>24814.1</v>
+      </c>
+      <c r="E2">
+        <v>4309.0098</v>
+      </c>
+      <c r="F2">
+        <v>348.701</v>
+      </c>
+      <c r="G2">
+        <v>7655.9502</v>
+      </c>
+      <c r="I2">
+        <v>27.003</v>
+      </c>
+      <c r="J2">
+        <v>5.693</v>
+      </c>
+      <c r="K2">
+        <v>15.094</v>
+      </c>
+      <c r="L2">
+        <v>2.749</v>
+      </c>
+      <c r="M2">
+        <v>20.31</v>
+      </c>
+      <c r="O2">
+        <v>12429.5996</v>
       </c>
       <c r="U2">
-        <v>16947.447</v>
+        <v>33410.029</v>
       </c>
       <c r="V2">
-        <v>12464</v>
+        <v>8596</v>
       </c>
       <c r="W2">
-        <v>12459.447</v>
+        <v>18448.029</v>
       </c>
       <c r="X2" t="s">
         <v>275</v>
       </c>
       <c r="Y2">
-        <v>253.6</v>
+        <v>289.5</v>
       </c>
       <c r="Z2">
-        <v>50.71</v>
+        <v>63.33</v>
       </c>
       <c r="AA2">
-        <v>4493</v>
+        <v>14340</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="AC2">
-        <v>15056</v>
+        <v>31353</v>
       </c>
     </row>
   </sheetData>
@@ -5580,46 +5677,49 @@
         <v>276</v>
       </c>
       <c r="B2">
-        <v>37960</v>
+        <v>16535.6</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>874.65</v>
       </c>
       <c r="D2">
-        <v>24260</v>
-      </c>
-      <c r="H2">
-        <v>310</v>
-      </c>
-      <c r="T2">
-        <v>23950</v>
+        <v>31830.4</v>
+      </c>
+      <c r="G2">
+        <v>31804.5</v>
+      </c>
+      <c r="I2">
+        <v>18.752</v>
+      </c>
+      <c r="J2">
+        <v>7.156</v>
       </c>
       <c r="U2">
-        <v>64451.9148</v>
+        <v>46215.1713</v>
       </c>
       <c r="V2">
-        <v>15310</v>
+        <v>12500</v>
       </c>
       <c r="W2">
-        <v>38530.9148</v>
+        <v>23995.1713</v>
       </c>
       <c r="X2" t="s">
         <v>277</v>
       </c>
       <c r="Y2">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="Z2">
-        <v>70.11</v>
+        <v>41.94</v>
       </c>
       <c r="AA2">
-        <v>26032</v>
+        <v>21949</v>
       </c>
       <c r="AB2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="AC2">
-        <v>61188</v>
+        <v>46108</v>
       </c>
     </row>
   </sheetData>
@@ -5729,67 +5829,37 @@
         <v>278</v>
       </c>
       <c r="B2">
-        <v>17674.801</v>
+        <v>499.152</v>
       </c>
       <c r="C2">
-        <v>13.145</v>
-      </c>
-      <c r="D2">
-        <v>24814.1</v>
-      </c>
-      <c r="E2">
-        <v>4309.0098</v>
-      </c>
-      <c r="F2">
-        <v>348.701</v>
-      </c>
-      <c r="G2">
-        <v>7655.9502</v>
-      </c>
-      <c r="I2">
-        <v>27.003</v>
-      </c>
-      <c r="J2">
-        <v>5.693</v>
-      </c>
-      <c r="K2">
-        <v>15.094</v>
-      </c>
-      <c r="L2">
-        <v>2.749</v>
-      </c>
-      <c r="M2">
-        <v>20.31</v>
-      </c>
-      <c r="O2">
-        <v>12429.5996</v>
+        <v>35.128</v>
       </c>
       <c r="U2">
-        <v>33410.029</v>
+        <v>3687.7719</v>
       </c>
       <c r="V2">
-        <v>8596</v>
+        <v>1459.154</v>
       </c>
       <c r="W2">
-        <v>18448.029</v>
+        <v>2481.7269</v>
       </c>
       <c r="X2" t="s">
         <v>279</v>
       </c>
       <c r="Y2">
-        <v>289.5</v>
+        <v>460.345</v>
       </c>
       <c r="Z2">
-        <v>63.33</v>
+        <v>4.46</v>
       </c>
       <c r="AA2">
-        <v>14340</v>
+        <v>1206.045</v>
       </c>
       <c r="AB2">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>31353</v>
+        <v>4619.701</v>
       </c>
     </row>
   </sheetData>
@@ -5899,49 +5969,37 @@
         <v>280</v>
       </c>
       <c r="B2">
-        <v>16535.6</v>
+        <v>719.333</v>
       </c>
       <c r="C2">
-        <v>874.65</v>
-      </c>
-      <c r="D2">
-        <v>31830.4</v>
-      </c>
-      <c r="G2">
-        <v>31804.5</v>
-      </c>
-      <c r="I2">
-        <v>18.752</v>
-      </c>
-      <c r="J2">
-        <v>7.156</v>
+        <v>586.092</v>
       </c>
       <c r="U2">
-        <v>46215.1713</v>
+        <v>6597.2876</v>
       </c>
       <c r="V2">
-        <v>12500</v>
+        <v>4493.1</v>
       </c>
       <c r="W2">
-        <v>23995.1713</v>
+        <v>5321.5876</v>
       </c>
       <c r="X2" t="s">
         <v>281</v>
       </c>
       <c r="Y2">
-        <v>571</v>
+        <v>566.7</v>
       </c>
       <c r="Z2">
-        <v>41.94</v>
+        <v>9.66</v>
       </c>
       <c r="AA2">
-        <v>21949</v>
+        <v>1565.6</v>
       </c>
       <c r="AB2">
-        <v>160</v>
+        <v>289.9</v>
       </c>
       <c r="AC2">
-        <v>46108</v>
+        <v>9486.4</v>
       </c>
     </row>
   </sheetData>
@@ -6051,37 +6109,76 @@
         <v>282</v>
       </c>
       <c r="B2">
-        <v>499.152</v>
+        <v>2733</v>
       </c>
       <c r="C2">
-        <v>35.128</v>
+        <v>199</v>
+      </c>
+      <c r="D2">
+        <v>69423</v>
+      </c>
+      <c r="E2">
+        <v>572</v>
+      </c>
+      <c r="F2">
+        <v>364</v>
+      </c>
+      <c r="G2">
+        <v>622</v>
+      </c>
+      <c r="H2">
+        <v>711</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>344</v>
+      </c>
+      <c r="N2">
+        <v>975</v>
+      </c>
+      <c r="O2">
+        <v>65146</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>609</v>
       </c>
       <c r="U2">
-        <v>3687.7719</v>
+        <v>33204.714</v>
       </c>
       <c r="V2">
-        <v>1459.154</v>
+        <v>18628</v>
       </c>
       <c r="W2">
-        <v>2481.7269</v>
+        <v>26311.714</v>
       </c>
       <c r="X2" t="s">
         <v>283</v>
       </c>
       <c r="Y2">
-        <v>460.345</v>
+        <v>526.7</v>
       </c>
       <c r="Z2">
-        <v>4.46</v>
+        <v>51.22</v>
       </c>
       <c r="AA2">
-        <v>1206.045</v>
+        <v>7738</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="AC2">
-        <v>4619.701</v>
+        <v>52359</v>
       </c>
     </row>
   </sheetData>
@@ -6191,37 +6288,85 @@
         <v>284</v>
       </c>
       <c r="B2">
-        <v>719.333</v>
+        <v>37220</v>
       </c>
       <c r="C2">
-        <v>586.092</v>
+        <v>2140</v>
+      </c>
+      <c r="D2">
+        <v>449000</v>
+      </c>
+      <c r="E2">
+        <v>30000</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>3000</v>
+      </c>
+      <c r="H2">
+        <v>9000</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>6000</v>
+      </c>
+      <c r="O2">
+        <v>381000</v>
+      </c>
+      <c r="P2">
+        <v>11000</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>6597.2876</v>
+        <v>173138.7229</v>
       </c>
       <c r="V2">
-        <v>4493.1</v>
+        <v>263310</v>
       </c>
       <c r="W2">
-        <v>5321.5876</v>
+        <v>155915.7229</v>
       </c>
       <c r="X2" t="s">
         <v>285</v>
       </c>
       <c r="Y2">
-        <v>566.7</v>
+        <v>2554.7074</v>
       </c>
       <c r="Z2">
-        <v>9.66</v>
+        <v>58.65</v>
       </c>
       <c r="AA2">
-        <v>1565.6</v>
+        <v>57020</v>
       </c>
       <c r="AB2">
-        <v>289.9</v>
+        <v>42643</v>
       </c>
       <c r="AC2">
-        <v>9486.4</v>
+        <v>303864</v>
       </c>
     </row>
   </sheetData>
@@ -6471,76 +6616,43 @@
         <v>286</v>
       </c>
       <c r="B2">
-        <v>2733</v>
+        <v>37417.602</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>141.831</v>
       </c>
       <c r="D2">
-        <v>69423</v>
-      </c>
-      <c r="E2">
-        <v>572</v>
-      </c>
-      <c r="F2">
-        <v>364</v>
-      </c>
-      <c r="G2">
-        <v>622</v>
-      </c>
-      <c r="H2">
-        <v>711</v>
-      </c>
-      <c r="I2">
-        <v>33</v>
+        <v>2.432</v>
       </c>
       <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>344</v>
-      </c>
-      <c r="N2">
-        <v>975</v>
-      </c>
-      <c r="O2">
-        <v>65146</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>609</v>
+        <v>2.432</v>
       </c>
       <c r="U2">
-        <v>33204.714</v>
+        <v>15176.632</v>
       </c>
       <c r="V2">
-        <v>18628</v>
+        <v>31543</v>
       </c>
       <c r="W2">
-        <v>26311.714</v>
+        <v>7304.632</v>
       </c>
       <c r="X2" t="s">
         <v>287</v>
       </c>
       <c r="Y2">
-        <v>526.7</v>
+        <v>236</v>
       </c>
       <c r="Z2">
-        <v>51.22</v>
+        <v>31.82</v>
       </c>
       <c r="AA2">
-        <v>7738</v>
+        <v>8302</v>
       </c>
       <c r="AB2">
-        <v>1883</v>
+        <v>430</v>
       </c>
       <c r="AC2">
-        <v>52359</v>
+        <v>29146</v>
       </c>
     </row>
   </sheetData>
@@ -6649,86 +6761,17 @@
       <c r="A2" t="s">
         <v>288</v>
       </c>
-      <c r="B2">
-        <v>37220</v>
-      </c>
-      <c r="C2">
-        <v>2140</v>
-      </c>
-      <c r="D2">
-        <v>449000</v>
-      </c>
-      <c r="E2">
-        <v>30000</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2">
-        <v>3000</v>
-      </c>
-      <c r="H2">
-        <v>9000</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
-      <c r="N2">
-        <v>6000</v>
-      </c>
-      <c r="O2">
-        <v>381000</v>
-      </c>
-      <c r="P2">
-        <v>11000</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1000</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>173138.7229</v>
-      </c>
-      <c r="V2">
-        <v>263310</v>
-      </c>
-      <c r="W2">
-        <v>155915.7229</v>
-      </c>
       <c r="X2" t="s">
         <v>289</v>
       </c>
-      <c r="Y2">
-        <v>2554.7074</v>
-      </c>
-      <c r="Z2">
-        <v>58.65</v>
-      </c>
       <c r="AA2">
-        <v>57020</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>42643</v>
+        <v>678874</v>
       </c>
       <c r="AC2">
-        <v>303864</v>
+        <v>687675</v>
       </c>
     </row>
   </sheetData>
@@ -6838,43 +6881,52 @@
         <v>290</v>
       </c>
       <c r="B2">
-        <v>37417.602</v>
+        <v>51100</v>
       </c>
       <c r="C2">
-        <v>141.831</v>
+        <v>363.484</v>
       </c>
       <c r="D2">
-        <v>2.432</v>
+        <v>41759.199</v>
+      </c>
+      <c r="E2">
+        <v>527.681</v>
+      </c>
+      <c r="G2">
+        <v>41198.6016</v>
       </c>
       <c r="J2">
-        <v>2.432</v>
+        <v>7.847</v>
+      </c>
+      <c r="K2">
+        <v>25.029</v>
       </c>
       <c r="U2">
-        <v>15176.632</v>
+        <v>89855.7844</v>
       </c>
       <c r="V2">
-        <v>31543</v>
+        <v>19600</v>
       </c>
       <c r="W2">
-        <v>7304.632</v>
+        <v>48791.5844</v>
       </c>
       <c r="X2" t="s">
         <v>291</v>
       </c>
       <c r="Y2">
-        <v>236</v>
+        <v>511.8419</v>
       </c>
       <c r="Z2">
-        <v>31.82</v>
+        <v>94.95</v>
       </c>
       <c r="AA2">
-        <v>8302</v>
+        <v>41579.3</v>
       </c>
       <c r="AB2">
-        <v>430</v>
+        <v>744.1</v>
       </c>
       <c r="AC2">
-        <v>29146</v>
+        <v>93403.3</v>
       </c>
     </row>
   </sheetData>
@@ -6983,17 +7035,50 @@
       <c r="A2" t="s">
         <v>292</v>
       </c>
+      <c r="B2">
+        <v>2231</v>
+      </c>
+      <c r="C2">
+        <v>435.933</v>
+      </c>
+      <c r="D2">
+        <v>48245.602</v>
+      </c>
+      <c r="J2">
+        <v>1.408</v>
+      </c>
+      <c r="N2">
+        <v>1664.04</v>
+      </c>
+      <c r="O2">
+        <v>46580.1992</v>
+      </c>
+      <c r="U2">
+        <v>50727.0029</v>
+      </c>
+      <c r="V2">
+        <v>11570</v>
+      </c>
+      <c r="W2">
+        <v>43422.0029</v>
+      </c>
       <c r="X2" t="s">
         <v>293</v>
       </c>
+      <c r="Y2">
+        <v>308.1</v>
+      </c>
+      <c r="Z2">
+        <v>141.82</v>
+      </c>
       <c r="AA2">
-        <v>0</v>
+        <v>9150</v>
       </c>
       <c r="AB2">
-        <v>678874</v>
+        <v>2486</v>
       </c>
       <c r="AC2">
-        <v>687675</v>
+        <v>21695</v>
       </c>
     </row>
   </sheetData>
@@ -7102,53 +7187,8 @@
       <c r="A2" t="s">
         <v>294</v>
       </c>
-      <c r="B2">
-        <v>51100</v>
-      </c>
-      <c r="C2">
-        <v>363.484</v>
-      </c>
-      <c r="D2">
-        <v>41759.199</v>
-      </c>
-      <c r="E2">
-        <v>527.681</v>
-      </c>
-      <c r="G2">
-        <v>41198.6016</v>
-      </c>
-      <c r="J2">
-        <v>7.847</v>
-      </c>
-      <c r="K2">
-        <v>25.029</v>
-      </c>
-      <c r="U2">
-        <v>89855.7844</v>
-      </c>
-      <c r="V2">
-        <v>19600</v>
-      </c>
-      <c r="W2">
-        <v>48791.5844</v>
-      </c>
       <c r="X2" t="s">
         <v>295</v>
-      </c>
-      <c r="Y2">
-        <v>511.8419</v>
-      </c>
-      <c r="Z2">
-        <v>94.95</v>
-      </c>
-      <c r="AA2">
-        <v>41579.3</v>
-      </c>
-      <c r="AB2">
-        <v>744.1</v>
-      </c>
-      <c r="AC2">
-        <v>93403.3</v>
       </c>
     </row>
   </sheetData>
@@ -7258,49 +7298,37 @@
         <v>296</v>
       </c>
       <c r="B2">
-        <v>2231</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>435.933</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>48245.602</v>
+        <v>171.816</v>
       </c>
       <c r="J2">
-        <v>1.408</v>
-      </c>
-      <c r="N2">
-        <v>1664.04</v>
-      </c>
-      <c r="O2">
-        <v>46580.1992</v>
+        <v>0.049</v>
+      </c>
+      <c r="S2">
+        <v>171.767</v>
       </c>
       <c r="U2">
-        <v>50727.0029</v>
+        <v>3511.7545</v>
       </c>
       <c r="V2">
-        <v>11570</v>
-      </c>
-      <c r="W2">
-        <v>43422.0029</v>
+        <v>367.901</v>
       </c>
       <c r="X2" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y2">
-        <v>308.1</v>
-      </c>
-      <c r="Z2">
-        <v>141.82</v>
+        <v>237</v>
       </c>
       <c r="AA2">
-        <v>9150</v>
+        <v>464.584</v>
       </c>
       <c r="AB2">
-        <v>2486</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>21695</v>
+        <v>1835.732</v>
       </c>
     </row>
   </sheetData>
@@ -7407,10 +7435,82 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2">
+        <v>1483</v>
+      </c>
+      <c r="C2">
+        <v>401</v>
+      </c>
+      <c r="D2">
+        <v>34849</v>
+      </c>
+      <c r="E2">
+        <v>6746.6099</v>
+      </c>
+      <c r="F2">
+        <v>93.71299999999999</v>
+      </c>
+      <c r="G2">
+        <v>90.133</v>
+      </c>
+      <c r="H2">
+        <v>927.6</v>
+      </c>
+      <c r="I2">
+        <v>64.78100000000001</v>
+      </c>
+      <c r="J2">
+        <v>122.918</v>
+      </c>
+      <c r="K2">
+        <v>58.179</v>
+      </c>
+      <c r="L2">
+        <v>743.128</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>19824.8008</v>
+      </c>
+      <c r="P2">
+        <v>122.493</v>
+      </c>
+      <c r="Q2">
+        <v>3504.9399</v>
+      </c>
+      <c r="S2">
+        <v>2548.73</v>
+      </c>
+      <c r="U2">
+        <v>86248.2</v>
+      </c>
+      <c r="V2">
+        <v>28091</v>
+      </c>
+      <c r="W2">
+        <v>75913.2</v>
+      </c>
+      <c r="X2" t="s">
         <v>298</v>
       </c>
-      <c r="X2" t="s">
-        <v>299</v>
+      <c r="Y2">
+        <v>1416</v>
+      </c>
+      <c r="Z2">
+        <v>53.46</v>
+      </c>
+      <c r="AA2">
+        <v>12925</v>
+      </c>
+      <c r="AB2">
+        <v>2894</v>
+      </c>
+      <c r="AC2">
+        <v>43135</v>
       </c>
     </row>
   </sheetData>
@@ -7517,40 +7617,52 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2">
+        <v>16800</v>
+      </c>
+      <c r="C2">
+        <v>9700</v>
+      </c>
+      <c r="D2">
+        <v>7700</v>
+      </c>
+      <c r="G2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>2900</v>
+      </c>
+      <c r="S2">
+        <v>1800</v>
+      </c>
+      <c r="U2">
+        <v>57212.1197</v>
+      </c>
+      <c r="V2">
+        <v>12698.6</v>
+      </c>
+      <c r="W2">
+        <v>51628.5197</v>
+      </c>
+      <c r="X2" t="s">
         <v>300</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>171.816</v>
-      </c>
-      <c r="J2">
-        <v>0.049</v>
-      </c>
-      <c r="S2">
-        <v>171.767</v>
-      </c>
-      <c r="U2">
-        <v>3511.7545</v>
-      </c>
-      <c r="V2">
-        <v>367.901</v>
-      </c>
-      <c r="X2" t="s">
-        <v>301</v>
+      <c r="Y2">
+        <v>222</v>
+      </c>
+      <c r="Z2">
+        <v>232.73</v>
       </c>
       <c r="AA2">
-        <v>464.584</v>
+        <v>8326.9</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>3301.7</v>
       </c>
       <c r="AC2">
-        <v>1835.732</v>
+        <v>27192.6</v>
       </c>
     </row>
   </sheetData>
@@ -7657,82 +7769,49 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2">
+        <v>3320.35</v>
+      </c>
+      <c r="C2">
+        <v>406.684</v>
+      </c>
+      <c r="D2">
+        <v>177.342</v>
+      </c>
+      <c r="I2">
+        <v>58.292</v>
+      </c>
+      <c r="J2">
+        <v>119.05</v>
+      </c>
+      <c r="U2">
+        <v>42260.7</v>
+      </c>
+      <c r="V2">
+        <v>20297</v>
+      </c>
+      <c r="W2">
+        <v>35493.7</v>
+      </c>
+      <c r="X2" t="s">
         <v>302</v>
       </c>
-      <c r="B2">
-        <v>1483</v>
-      </c>
-      <c r="C2">
-        <v>401</v>
-      </c>
-      <c r="D2">
-        <v>34849</v>
-      </c>
-      <c r="E2">
-        <v>6746.6099</v>
-      </c>
-      <c r="F2">
-        <v>93.71299999999999</v>
-      </c>
-      <c r="G2">
-        <v>90.133</v>
-      </c>
-      <c r="H2">
-        <v>927.6</v>
-      </c>
-      <c r="I2">
-        <v>64.78100000000001</v>
-      </c>
-      <c r="J2">
-        <v>122.918</v>
-      </c>
-      <c r="K2">
-        <v>58.179</v>
-      </c>
-      <c r="L2">
-        <v>743.128</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>19824.8008</v>
-      </c>
-      <c r="P2">
-        <v>122.493</v>
-      </c>
-      <c r="Q2">
-        <v>3504.9399</v>
-      </c>
-      <c r="S2">
-        <v>2548.73</v>
-      </c>
-      <c r="U2">
-        <v>86248.2</v>
-      </c>
-      <c r="V2">
-        <v>28091</v>
-      </c>
-      <c r="W2">
-        <v>75913.2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>303</v>
-      </c>
       <c r="Y2">
-        <v>1416</v>
+        <v>904</v>
       </c>
       <c r="Z2">
-        <v>53.46</v>
+        <v>39.35</v>
       </c>
       <c r="AA2">
-        <v>12925</v>
+        <v>9084</v>
       </c>
       <c r="AB2">
-        <v>2894</v>
+        <v>2346</v>
       </c>
       <c r="AC2">
-        <v>43135</v>
+        <v>23255</v>
       </c>
     </row>
   </sheetData>
@@ -7839,52 +7918,46 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2">
+        <v>9565</v>
+      </c>
+      <c r="C2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D2">
+        <v>83825</v>
+      </c>
+      <c r="O2">
+        <v>83825</v>
+      </c>
+      <c r="U2">
+        <v>47248.2123</v>
+      </c>
+      <c r="V2">
+        <v>16817</v>
+      </c>
+      <c r="W2">
+        <v>45886.2123</v>
+      </c>
+      <c r="X2" t="s">
         <v>304</v>
       </c>
-      <c r="B2">
-        <v>16800</v>
-      </c>
-      <c r="C2">
-        <v>9700</v>
-      </c>
-      <c r="D2">
-        <v>7700</v>
-      </c>
-      <c r="G2">
-        <v>3000</v>
-      </c>
-      <c r="O2">
-        <v>2900</v>
-      </c>
-      <c r="S2">
-        <v>1800</v>
-      </c>
-      <c r="U2">
-        <v>57212.1197</v>
-      </c>
-      <c r="V2">
-        <v>12698.6</v>
-      </c>
-      <c r="W2">
-        <v>51628.5197</v>
-      </c>
-      <c r="X2" t="s">
-        <v>305</v>
-      </c>
       <c r="Y2">
-        <v>222</v>
+        <v>1511.2574</v>
       </c>
       <c r="Z2">
-        <v>232.73</v>
+        <v>35.44</v>
       </c>
       <c r="AA2">
-        <v>8326.9</v>
+        <v>6772</v>
       </c>
       <c r="AB2">
-        <v>3301.7</v>
+        <v>6201</v>
       </c>
       <c r="AC2">
-        <v>27192.6</v>
+        <v>59321</v>
       </c>
     </row>
   </sheetData>
@@ -8101,49 +8174,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="X2" t="s">
         <v>306</v>
-      </c>
-      <c r="B2">
-        <v>3320.35</v>
-      </c>
-      <c r="C2">
-        <v>406.684</v>
-      </c>
-      <c r="D2">
-        <v>177.342</v>
-      </c>
-      <c r="I2">
-        <v>58.292</v>
-      </c>
-      <c r="J2">
-        <v>119.05</v>
-      </c>
-      <c r="U2">
-        <v>42260.7</v>
-      </c>
-      <c r="V2">
-        <v>20297</v>
-      </c>
-      <c r="W2">
-        <v>35493.7</v>
-      </c>
-      <c r="X2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y2">
-        <v>904</v>
-      </c>
-      <c r="Z2">
-        <v>39.35</v>
-      </c>
-      <c r="AA2">
-        <v>9084</v>
-      </c>
-      <c r="AB2">
-        <v>2346</v>
-      </c>
-      <c r="AC2">
-        <v>23255</v>
       </c>
     </row>
   </sheetData>
@@ -8250,46 +8284,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="X2" t="s">
         <v>308</v>
-      </c>
-      <c r="B2">
-        <v>9565</v>
-      </c>
-      <c r="C2">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D2">
-        <v>83825</v>
-      </c>
-      <c r="O2">
-        <v>83825</v>
-      </c>
-      <c r="U2">
-        <v>47248.2123</v>
-      </c>
-      <c r="V2">
-        <v>16817</v>
-      </c>
-      <c r="W2">
-        <v>45886.2123</v>
-      </c>
-      <c r="X2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y2">
-        <v>1511.2574</v>
-      </c>
-      <c r="Z2">
-        <v>35.44</v>
-      </c>
-      <c r="AA2">
-        <v>6772</v>
-      </c>
-      <c r="AB2">
-        <v>6201</v>
-      </c>
-      <c r="AC2">
-        <v>59321</v>
       </c>
     </row>
   </sheetData>
@@ -8396,10 +8394,52 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>17600</v>
+      </c>
+      <c r="C2">
+        <v>4900</v>
+      </c>
+      <c r="D2">
+        <v>217000</v>
+      </c>
+      <c r="M2">
+        <v>1600</v>
+      </c>
+      <c r="N2">
+        <v>20200</v>
+      </c>
+      <c r="O2">
+        <v>195200</v>
+      </c>
+      <c r="U2">
+        <v>86606.1149</v>
+      </c>
+      <c r="V2">
+        <v>36634</v>
+      </c>
+      <c r="W2">
+        <v>56682.1149</v>
+      </c>
+      <c r="X2" t="s">
         <v>310</v>
       </c>
-      <c r="X2" t="s">
-        <v>311</v>
+      <c r="Y2">
+        <v>926.2</v>
+      </c>
+      <c r="Z2">
+        <v>62.99</v>
+      </c>
+      <c r="AA2">
+        <v>20908</v>
+      </c>
+      <c r="AB2">
+        <v>984</v>
+      </c>
+      <c r="AC2">
+        <v>72609</v>
       </c>
     </row>
   </sheetData>
@@ -8506,10 +8546,49 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2">
+        <v>18.898</v>
+      </c>
+      <c r="C2">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D2">
+        <v>6.861</v>
+      </c>
+      <c r="I2">
+        <v>0.153</v>
+      </c>
+      <c r="J2">
+        <v>6.708</v>
+      </c>
+      <c r="U2">
+        <v>39278.3356</v>
+      </c>
+      <c r="V2">
+        <v>21053</v>
+      </c>
+      <c r="W2">
+        <v>34159.3356</v>
+      </c>
+      <c r="X2" t="s">
         <v>312</v>
       </c>
-      <c r="X2" t="s">
-        <v>313</v>
+      <c r="Y2">
+        <v>175.6</v>
+      </c>
+      <c r="Z2">
+        <v>194.91</v>
+      </c>
+      <c r="AA2">
+        <v>4522</v>
+      </c>
+      <c r="AB2">
+        <v>1010</v>
+      </c>
+      <c r="AC2">
+        <v>53741</v>
       </c>
     </row>
   </sheetData>
@@ -8616,52 +8695,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="X2" t="s">
         <v>314</v>
-      </c>
-      <c r="B2">
-        <v>17600</v>
-      </c>
-      <c r="C2">
-        <v>4900</v>
-      </c>
-      <c r="D2">
-        <v>217000</v>
-      </c>
-      <c r="M2">
-        <v>1600</v>
-      </c>
-      <c r="N2">
-        <v>20200</v>
-      </c>
-      <c r="O2">
-        <v>195200</v>
-      </c>
-      <c r="U2">
-        <v>86606.1149</v>
-      </c>
-      <c r="V2">
-        <v>36634</v>
-      </c>
-      <c r="W2">
-        <v>56682.1149</v>
-      </c>
-      <c r="X2" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y2">
-        <v>926.2</v>
-      </c>
-      <c r="Z2">
-        <v>62.99</v>
-      </c>
-      <c r="AA2">
-        <v>20908</v>
-      </c>
-      <c r="AB2">
-        <v>984</v>
-      </c>
-      <c r="AC2">
-        <v>72609</v>
       </c>
     </row>
   </sheetData>
@@ -8768,49 +8805,34 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="U2">
+        <v>26344.9413</v>
+      </c>
+      <c r="V2">
+        <v>28050</v>
+      </c>
+      <c r="W2">
+        <v>13827.4413</v>
+      </c>
+      <c r="X2" t="s">
         <v>316</v>
       </c>
-      <c r="B2">
-        <v>18.898</v>
-      </c>
-      <c r="C2">
-        <v>9.553000000000001</v>
-      </c>
-      <c r="D2">
-        <v>6.861</v>
-      </c>
-      <c r="I2">
-        <v>0.153</v>
-      </c>
-      <c r="J2">
-        <v>6.708</v>
-      </c>
-      <c r="U2">
-        <v>39278.3356</v>
-      </c>
-      <c r="V2">
-        <v>21053</v>
-      </c>
-      <c r="W2">
-        <v>34159.3356</v>
-      </c>
-      <c r="X2" t="s">
-        <v>317</v>
-      </c>
       <c r="Y2">
-        <v>175.6</v>
+        <v>23.6378</v>
       </c>
       <c r="Z2">
-        <v>194.91</v>
+        <v>802.0700000000001</v>
       </c>
       <c r="AA2">
-        <v>4522</v>
+        <v>8624.9</v>
       </c>
       <c r="AB2">
-        <v>1010</v>
+        <v>1345.8</v>
       </c>
       <c r="AC2">
-        <v>53741</v>
+        <v>78818.5</v>
       </c>
     </row>
   </sheetData>
@@ -8917,10 +8939,58 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2">
+        <v>43.707</v>
+      </c>
+      <c r="C2">
+        <v>79.61499999999999</v>
+      </c>
+      <c r="D2">
+        <v>1172.61</v>
+      </c>
+      <c r="E2">
+        <v>1058.67</v>
+      </c>
+      <c r="F2">
+        <v>74.06</v>
+      </c>
+      <c r="G2">
+        <v>24.515</v>
+      </c>
+      <c r="J2">
+        <v>12.092</v>
+      </c>
+      <c r="L2">
+        <v>2.281</v>
+      </c>
+      <c r="Q2">
+        <v>0.99</v>
+      </c>
+      <c r="V2">
+        <v>43419</v>
+      </c>
+      <c r="W2">
+        <v>157795.654</v>
+      </c>
+      <c r="X2" t="s">
         <v>318</v>
       </c>
-      <c r="X2" t="s">
-        <v>319</v>
+      <c r="Y2">
+        <v>1810.5</v>
+      </c>
+      <c r="Z2">
+        <v>86.62</v>
+      </c>
+      <c r="AA2">
+        <v>210014</v>
+      </c>
+      <c r="AB2">
+        <v>306017</v>
+      </c>
+      <c r="AC2">
+        <v>1917528</v>
       </c>
     </row>
   </sheetData>
@@ -9027,34 +9097,46 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2">
+        <v>0.433</v>
+      </c>
+      <c r="C2">
+        <v>2.204</v>
+      </c>
+      <c r="D2">
+        <v>10.945</v>
+      </c>
+      <c r="J2">
+        <v>10.945</v>
+      </c>
+      <c r="U2">
+        <v>364172.9659</v>
+      </c>
+      <c r="V2">
+        <v>92769</v>
+      </c>
+      <c r="W2">
+        <v>49517.9659</v>
+      </c>
+      <c r="X2" t="s">
         <v>320</v>
       </c>
-      <c r="U2">
-        <v>26344.9413</v>
-      </c>
-      <c r="V2">
-        <v>28050</v>
-      </c>
-      <c r="W2">
-        <v>13827.4413</v>
-      </c>
-      <c r="X2" t="s">
-        <v>321</v>
-      </c>
       <c r="Y2">
-        <v>23.6378</v>
+        <v>1567.5</v>
       </c>
       <c r="Z2">
-        <v>802.0700000000001</v>
+        <v>42.58</v>
       </c>
       <c r="AA2">
-        <v>8624.9</v>
+        <v>226768</v>
       </c>
       <c r="AB2">
-        <v>1345.8</v>
+        <v>14396</v>
       </c>
       <c r="AC2">
-        <v>78818.5</v>
+        <v>441284</v>
       </c>
     </row>
   </sheetData>
@@ -9161,58 +9243,37 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2">
+        <v>1250.8</v>
+      </c>
+      <c r="U2">
+        <v>4581.0672</v>
+      </c>
+      <c r="V2">
+        <v>3791.398</v>
+      </c>
+      <c r="W2">
+        <v>4931.0182</v>
+      </c>
+      <c r="X2" t="s">
         <v>322</v>
       </c>
-      <c r="B2">
-        <v>43.707</v>
-      </c>
-      <c r="C2">
-        <v>79.61499999999999</v>
-      </c>
-      <c r="D2">
-        <v>1172.61</v>
-      </c>
-      <c r="E2">
-        <v>1058.67</v>
-      </c>
-      <c r="F2">
-        <v>74.06</v>
-      </c>
-      <c r="G2">
-        <v>24.515</v>
-      </c>
-      <c r="J2">
-        <v>12.092</v>
-      </c>
-      <c r="L2">
-        <v>2.281</v>
-      </c>
-      <c r="Q2">
-        <v>0.99</v>
-      </c>
-      <c r="V2">
-        <v>43419</v>
-      </c>
-      <c r="W2">
-        <v>157795.654</v>
-      </c>
-      <c r="X2" t="s">
-        <v>323</v>
-      </c>
       <c r="Y2">
-        <v>1810.5</v>
+        <v>85.005</v>
       </c>
       <c r="Z2">
-        <v>86.62</v>
+        <v>57.93</v>
       </c>
       <c r="AA2">
-        <v>210014</v>
+        <v>418.081</v>
       </c>
       <c r="AB2">
-        <v>306017</v>
+        <v>768.032</v>
       </c>
       <c r="AC2">
-        <v>1917528</v>
+        <v>7971.399</v>
       </c>
     </row>
   </sheetData>
@@ -9319,46 +9380,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="X2" t="s">
         <v>324</v>
-      </c>
-      <c r="B2">
-        <v>0.433</v>
-      </c>
-      <c r="C2">
-        <v>2.204</v>
-      </c>
-      <c r="D2">
-        <v>10.945</v>
-      </c>
-      <c r="J2">
-        <v>10.945</v>
-      </c>
-      <c r="U2">
-        <v>364172.9659</v>
-      </c>
-      <c r="V2">
-        <v>92769</v>
-      </c>
-      <c r="W2">
-        <v>49517.9659</v>
-      </c>
-      <c r="X2" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y2">
-        <v>1567.5</v>
-      </c>
-      <c r="Z2">
-        <v>42.58</v>
-      </c>
-      <c r="AA2">
-        <v>226768</v>
-      </c>
-      <c r="AB2">
-        <v>14396</v>
-      </c>
-      <c r="AC2">
-        <v>441284</v>
       </c>
     </row>
   </sheetData>
@@ -9623,37 +9648,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="X2" t="s">
         <v>326</v>
-      </c>
-      <c r="B2">
-        <v>1250.8</v>
-      </c>
-      <c r="U2">
-        <v>4581.0672</v>
-      </c>
-      <c r="V2">
-        <v>3791.398</v>
-      </c>
-      <c r="W2">
-        <v>4931.0182</v>
-      </c>
-      <c r="X2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y2">
-        <v>85.005</v>
-      </c>
-      <c r="Z2">
-        <v>57.93</v>
-      </c>
-      <c r="AA2">
-        <v>418.081</v>
-      </c>
-      <c r="AB2">
-        <v>768.032</v>
-      </c>
-      <c r="AC2">
-        <v>7971.399</v>
       </c>
     </row>
   </sheetData>
@@ -9760,10 +9758,82 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2">
+        <v>13159.5</v>
+      </c>
+      <c r="C2">
+        <v>301.034</v>
+      </c>
+      <c r="D2">
+        <v>153448</v>
+      </c>
+      <c r="E2">
+        <v>6949.04</v>
+      </c>
+      <c r="G2">
+        <v>64.372</v>
+      </c>
+      <c r="H2">
+        <v>277.973</v>
+      </c>
+      <c r="I2">
+        <v>168.71</v>
+      </c>
+      <c r="J2">
+        <v>2.556</v>
+      </c>
+      <c r="K2">
+        <v>11.467</v>
+      </c>
+      <c r="L2">
+        <v>0.285</v>
+      </c>
+      <c r="M2">
+        <v>905.813</v>
+      </c>
+      <c r="N2">
+        <v>5708.35</v>
+      </c>
+      <c r="O2">
+        <v>138387</v>
+      </c>
+      <c r="P2">
+        <v>119.473</v>
+      </c>
+      <c r="Q2">
+        <v>0.157</v>
+      </c>
+      <c r="S2">
+        <v>852.845</v>
+      </c>
+      <c r="U2">
+        <v>227288528.1</v>
+      </c>
+      <c r="V2">
+        <v>159474000</v>
+      </c>
+      <c r="W2">
+        <v>99502401.15000001</v>
+      </c>
+      <c r="X2" t="s">
         <v>328</v>
       </c>
-      <c r="X2" t="s">
-        <v>329</v>
+      <c r="Y2">
+        <v>41116.6947</v>
+      </c>
+      <c r="Z2">
+        <v>2420</v>
+      </c>
+      <c r="AA2">
+        <v>115134839</v>
+      </c>
+      <c r="AB2">
+        <v>15401058</v>
+      </c>
+      <c r="AC2">
+        <v>306369507</v>
       </c>
     </row>
   </sheetData>
@@ -9870,10 +9940,49 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2">
+        <v>11400</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>243050</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>243000</v>
+      </c>
+      <c r="U2">
+        <v>97317.0968</v>
+      </c>
+      <c r="V2">
+        <v>150806</v>
+      </c>
+      <c r="W2">
+        <v>111892.0968</v>
+      </c>
+      <c r="X2" t="s">
         <v>330</v>
       </c>
-      <c r="X2" t="s">
-        <v>331</v>
+      <c r="Y2">
+        <v>3174</v>
+      </c>
+      <c r="Z2">
+        <v>351.8</v>
+      </c>
+      <c r="AA2">
+        <v>32167</v>
+      </c>
+      <c r="AB2">
+        <v>46743</v>
+      </c>
+      <c r="AC2">
+        <v>158021</v>
       </c>
     </row>
   </sheetData>
@@ -9980,82 +10089,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="X2" t="s">
         <v>332</v>
-      </c>
-      <c r="B2">
-        <v>13159.5</v>
-      </c>
-      <c r="C2">
-        <v>301.034</v>
-      </c>
-      <c r="D2">
-        <v>153448</v>
-      </c>
-      <c r="E2">
-        <v>6949.04</v>
-      </c>
-      <c r="G2">
-        <v>64.372</v>
-      </c>
-      <c r="H2">
-        <v>277.973</v>
-      </c>
-      <c r="I2">
-        <v>168.71</v>
-      </c>
-      <c r="J2">
-        <v>2.556</v>
-      </c>
-      <c r="K2">
-        <v>11.467</v>
-      </c>
-      <c r="L2">
-        <v>0.285</v>
-      </c>
-      <c r="M2">
-        <v>905.813</v>
-      </c>
-      <c r="N2">
-        <v>5708.35</v>
-      </c>
-      <c r="O2">
-        <v>138387</v>
-      </c>
-      <c r="P2">
-        <v>119.473</v>
-      </c>
-      <c r="Q2">
-        <v>0.157</v>
-      </c>
-      <c r="S2">
-        <v>852.845</v>
-      </c>
-      <c r="U2">
-        <v>227288528.1</v>
-      </c>
-      <c r="V2">
-        <v>159474000</v>
-      </c>
-      <c r="W2">
-        <v>99502401.15000001</v>
-      </c>
-      <c r="X2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y2">
-        <v>41116.6947</v>
-      </c>
-      <c r="Z2">
-        <v>2420</v>
-      </c>
-      <c r="AA2">
-        <v>115134839</v>
-      </c>
-      <c r="AB2">
-        <v>15401058</v>
-      </c>
-      <c r="AC2">
-        <v>306369507</v>
       </c>
     </row>
   </sheetData>
@@ -10162,266 +10199,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2">
-        <v>11400</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>243050</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="O2">
-        <v>243000</v>
-      </c>
-      <c r="U2">
-        <v>97317.0968</v>
-      </c>
-      <c r="V2">
-        <v>150806</v>
-      </c>
-      <c r="W2">
-        <v>111892.0968</v>
-      </c>
-      <c r="X2" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y2">
-        <v>3174</v>
-      </c>
-      <c r="Z2">
-        <v>351.8</v>
-      </c>
-      <c r="AA2">
-        <v>32167</v>
-      </c>
-      <c r="AB2">
-        <v>46743</v>
-      </c>
-      <c r="AC2">
-        <v>158021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B2">
         <v>1376.23</v>
@@ -10439,7 +10217,7 @@
         <v>6537.438</v>
       </c>
       <c r="X2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Y2">
         <v>616.5</v>
@@ -13180,73 +12958,49 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>57204.398</v>
+        <v>2867.86</v>
       </c>
       <c r="C2">
-        <v>6367</v>
+        <v>482.284</v>
       </c>
       <c r="D2">
-        <v>37557</v>
-      </c>
-      <c r="E2">
-        <v>5247.44</v>
-      </c>
-      <c r="G2">
-        <v>249.43</v>
-      </c>
-      <c r="H2">
-        <v>402.85</v>
-      </c>
-      <c r="I2">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="J2">
-        <v>2.007</v>
-      </c>
-      <c r="K2">
-        <v>36.24</v>
-      </c>
-      <c r="L2">
-        <v>3.72</v>
+        <v>162000</v>
       </c>
       <c r="M2">
-        <v>273.04</v>
+        <v>13000</v>
+      </c>
+      <c r="N2">
+        <v>31000</v>
       </c>
       <c r="O2">
-        <v>29585.3</v>
-      </c>
-      <c r="R2">
-        <v>148.39</v>
-      </c>
-      <c r="S2">
-        <v>1531.28</v>
+        <v>118000</v>
       </c>
       <c r="U2">
-        <v>316472.1243</v>
+        <v>58662.262</v>
       </c>
       <c r="V2">
-        <v>275738</v>
+        <v>16310</v>
       </c>
       <c r="W2">
-        <v>233915.1243</v>
+        <v>53908.262</v>
       </c>
       <c r="X2" t="s">
         <v>92</v>
       </c>
       <c r="Y2">
-        <v>624.9</v>
+        <v>240</v>
       </c>
       <c r="Z2">
-        <v>37168</v>
+        <v>228.39</v>
       </c>
       <c r="AA2">
-        <v>121123</v>
+        <v>5786</v>
       </c>
       <c r="AB2">
-        <v>43140</v>
+        <v>1032</v>
       </c>
       <c r="AC2">
-        <v>419548</v>
+        <v>35740</v>
       </c>
     </row>
   </sheetData>
@@ -13355,50 +13109,32 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2">
-        <v>2867.86</v>
-      </c>
-      <c r="C2">
-        <v>482.284</v>
-      </c>
-      <c r="D2">
-        <v>162000</v>
-      </c>
-      <c r="M2">
-        <v>13000</v>
-      </c>
-      <c r="N2">
-        <v>31000</v>
-      </c>
-      <c r="O2">
-        <v>118000</v>
-      </c>
       <c r="U2">
-        <v>58662.262</v>
+        <v>2542.8149</v>
       </c>
       <c r="V2">
-        <v>16310</v>
+        <v>393.02</v>
       </c>
       <c r="W2">
-        <v>53908.262</v>
+        <v>2385.0639</v>
       </c>
       <c r="X2" t="s">
         <v>94</v>
       </c>
       <c r="Y2">
-        <v>240</v>
+        <v>150.6332</v>
       </c>
       <c r="Z2">
-        <v>228.39</v>
+        <v>15.83</v>
       </c>
       <c r="AA2">
-        <v>5786</v>
+        <v>158.275</v>
       </c>
       <c r="AB2">
-        <v>1032</v>
+        <v>0.524</v>
       </c>
       <c r="AC2">
-        <v>35740</v>
+        <v>1212.003</v>
       </c>
     </row>
   </sheetData>
@@ -13507,32 +13243,44 @@
       <c r="A2" t="s">
         <v>95</v>
       </c>
+      <c r="B2">
+        <v>3170</v>
+      </c>
+      <c r="C2">
+        <v>190</v>
+      </c>
+      <c r="D2">
+        <v>42050</v>
+      </c>
+      <c r="O2">
+        <v>42050</v>
+      </c>
       <c r="U2">
-        <v>2542.8149</v>
+        <v>22880.31</v>
       </c>
       <c r="V2">
-        <v>393.02</v>
+        <v>8036</v>
       </c>
       <c r="W2">
-        <v>2385.0639</v>
+        <v>17135.31</v>
       </c>
       <c r="X2" t="s">
         <v>96</v>
       </c>
       <c r="Y2">
-        <v>150.6332</v>
+        <v>685</v>
       </c>
       <c r="Z2">
-        <v>15.83</v>
+        <v>27.07</v>
       </c>
       <c r="AA2">
-        <v>158.275</v>
+        <v>6079</v>
       </c>
       <c r="AB2">
-        <v>0.524</v>
+        <v>334</v>
       </c>
       <c r="AC2">
-        <v>1212.003</v>
+        <v>19940</v>
       </c>
     </row>
   </sheetData>
@@ -13642,43 +13390,49 @@
         <v>97</v>
       </c>
       <c r="B2">
-        <v>3170</v>
+        <v>7715</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>6693</v>
       </c>
       <c r="D2">
-        <v>42050</v>
+        <v>54100.602</v>
+      </c>
+      <c r="G2">
+        <v>297</v>
+      </c>
+      <c r="J2">
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>42050</v>
+        <v>53800</v>
       </c>
       <c r="U2">
-        <v>22880.31</v>
+        <v>198456</v>
       </c>
       <c r="V2">
-        <v>8036</v>
+        <v>53309</v>
       </c>
       <c r="W2">
-        <v>17135.31</v>
+        <v>107244</v>
       </c>
       <c r="X2" t="s">
         <v>98</v>
       </c>
       <c r="Y2">
-        <v>685</v>
+        <v>2025</v>
       </c>
       <c r="Z2">
-        <v>27.07</v>
+        <v>52.96</v>
       </c>
       <c r="AA2">
-        <v>6079</v>
+        <v>81744</v>
       </c>
       <c r="AB2">
-        <v>334</v>
+        <v>861</v>
       </c>
       <c r="AC2">
-        <v>19940</v>
+        <v>179608</v>
       </c>
     </row>
   </sheetData>
@@ -13788,49 +13542,70 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>7715</v>
+        <v>616.184</v>
       </c>
       <c r="C2">
-        <v>6693</v>
+        <v>208.023</v>
       </c>
       <c r="D2">
-        <v>54100.602</v>
+        <v>11682.5</v>
+      </c>
+      <c r="E2">
+        <v>78.047</v>
+      </c>
+      <c r="F2">
+        <v>45.917</v>
       </c>
       <c r="G2">
-        <v>297</v>
+        <v>197.814</v>
+      </c>
+      <c r="H2">
+        <v>109.222</v>
+      </c>
+      <c r="I2">
+        <v>6.649</v>
       </c>
       <c r="J2">
-        <v>3.6</v>
+        <v>3.401</v>
+      </c>
+      <c r="K2">
+        <v>1.02</v>
+      </c>
+      <c r="M2">
+        <v>55.671</v>
+      </c>
+      <c r="N2">
+        <v>600.529</v>
       </c>
       <c r="O2">
-        <v>53800</v>
+        <v>10584.2002</v>
       </c>
       <c r="U2">
-        <v>198456</v>
+        <v>5031.5732</v>
       </c>
       <c r="V2">
-        <v>53309</v>
+        <v>3476.394</v>
       </c>
       <c r="W2">
-        <v>107244</v>
+        <v>3912.5512</v>
       </c>
       <c r="X2" t="s">
         <v>100</v>
       </c>
       <c r="Y2">
-        <v>2025</v>
+        <v>163.489</v>
       </c>
       <c r="Z2">
-        <v>52.96</v>
+        <v>23.97</v>
       </c>
       <c r="AA2">
-        <v>81744</v>
+        <v>1132.858</v>
       </c>
       <c r="AB2">
-        <v>861</v>
+        <v>13.836</v>
       </c>
       <c r="AC2">
-        <v>179608</v>
+        <v>6991.058</v>
       </c>
     </row>
   </sheetData>
@@ -13939,71 +13714,8 @@
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2">
-        <v>616.184</v>
-      </c>
-      <c r="C2">
-        <v>208.023</v>
-      </c>
-      <c r="D2">
-        <v>11682.5</v>
-      </c>
-      <c r="E2">
-        <v>78.047</v>
-      </c>
-      <c r="F2">
-        <v>45.917</v>
-      </c>
-      <c r="G2">
-        <v>197.814</v>
-      </c>
-      <c r="H2">
-        <v>109.222</v>
-      </c>
-      <c r="I2">
-        <v>6.649</v>
-      </c>
-      <c r="J2">
-        <v>3.401</v>
-      </c>
-      <c r="K2">
-        <v>1.02</v>
-      </c>
-      <c r="M2">
-        <v>55.671</v>
-      </c>
-      <c r="N2">
-        <v>600.529</v>
-      </c>
-      <c r="O2">
-        <v>10584.2002</v>
-      </c>
-      <c r="U2">
-        <v>5031.5732</v>
-      </c>
-      <c r="V2">
-        <v>3476.394</v>
-      </c>
-      <c r="W2">
-        <v>3912.5512</v>
-      </c>
       <c r="X2" t="s">
         <v>102</v>
-      </c>
-      <c r="Y2">
-        <v>163.489</v>
-      </c>
-      <c r="Z2">
-        <v>23.97</v>
-      </c>
-      <c r="AA2">
-        <v>1132.858</v>
-      </c>
-      <c r="AB2">
-        <v>13.836</v>
-      </c>
-      <c r="AC2">
-        <v>6991.058</v>
       </c>
     </row>
   </sheetData>
@@ -14113,34 +13825,43 @@
         <v>103</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>3700</v>
+      </c>
+      <c r="C2">
+        <v>2900</v>
+      </c>
+      <c r="D2">
+        <v>64300</v>
+      </c>
+      <c r="O2">
+        <v>64300</v>
       </c>
       <c r="U2">
-        <v>82329.84910000001</v>
+        <v>42881.5246</v>
       </c>
       <c r="V2">
-        <v>58186</v>
+        <v>22386.892</v>
       </c>
       <c r="W2">
-        <v>52359.8491</v>
+        <v>29378.2656</v>
       </c>
       <c r="X2" t="s">
         <v>104</v>
       </c>
       <c r="Y2">
-        <v>2199</v>
+        <v>447.507</v>
       </c>
       <c r="Z2">
-        <v>24.12</v>
+        <v>65.7</v>
       </c>
       <c r="AA2">
-        <v>28918</v>
+        <v>13723.486</v>
       </c>
       <c r="AB2">
-        <v>76</v>
+        <v>220.227</v>
       </c>
       <c r="AC2">
-        <v>68108</v>
+        <v>24379.094</v>
       </c>
     </row>
   </sheetData>
@@ -14249,8 +13970,38 @@
       <c r="A2" t="s">
         <v>105</v>
       </c>
+      <c r="B2">
+        <v>10929.5</v>
+      </c>
+      <c r="C2">
+        <v>239.445</v>
+      </c>
+      <c r="U2">
+        <v>66237.17999999999</v>
+      </c>
+      <c r="V2">
+        <v>33428</v>
+      </c>
+      <c r="W2">
+        <v>36815.18</v>
+      </c>
       <c r="X2" t="s">
         <v>106</v>
+      </c>
+      <c r="Y2">
+        <v>251.1</v>
+      </c>
+      <c r="Z2">
+        <v>149.96</v>
+      </c>
+      <c r="AA2">
+        <v>27977</v>
+      </c>
+      <c r="AB2">
+        <v>1353</v>
+      </c>
+      <c r="AC2">
+        <v>41266</v>
       </c>
     </row>
   </sheetData>
@@ -14500,43 +14251,43 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>3700</v>
+        <v>838.199</v>
       </c>
       <c r="C2">
-        <v>2900</v>
+        <v>124.254</v>
       </c>
       <c r="D2">
-        <v>64300</v>
-      </c>
-      <c r="O2">
-        <v>64300</v>
+        <v>0.067</v>
+      </c>
+      <c r="J2">
+        <v>0.067</v>
       </c>
       <c r="U2">
-        <v>42881.5246</v>
+        <v>4077.6277</v>
       </c>
       <c r="V2">
-        <v>22386.892</v>
+        <v>2155.688</v>
       </c>
       <c r="W2">
-        <v>29378.2656</v>
+        <v>3833.1857</v>
       </c>
       <c r="X2" t="s">
         <v>108</v>
       </c>
       <c r="Y2">
-        <v>447.507</v>
+        <v>233.946</v>
       </c>
       <c r="Z2">
-        <v>65.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA2">
-        <v>13723.486</v>
+        <v>282.442</v>
       </c>
       <c r="AB2">
-        <v>220.227</v>
+        <v>38</v>
       </c>
       <c r="AC2">
-        <v>24379.094</v>
+        <v>1937.981</v>
       </c>
     </row>
   </sheetData>
@@ -14645,38 +14396,8 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2">
-        <v>10929.5</v>
-      </c>
-      <c r="C2">
-        <v>239.445</v>
-      </c>
-      <c r="U2">
-        <v>66237.17999999999</v>
-      </c>
-      <c r="V2">
-        <v>33428</v>
-      </c>
-      <c r="W2">
-        <v>36815.18</v>
-      </c>
       <c r="X2" t="s">
         <v>110</v>
-      </c>
-      <c r="Y2">
-        <v>251.1</v>
-      </c>
-      <c r="Z2">
-        <v>149.96</v>
-      </c>
-      <c r="AA2">
-        <v>27977</v>
-      </c>
-      <c r="AB2">
-        <v>1353</v>
-      </c>
-      <c r="AC2">
-        <v>41266</v>
       </c>
     </row>
   </sheetData>
@@ -14786,43 +14507,52 @@
         <v>111</v>
       </c>
       <c r="B2">
-        <v>838.199</v>
+        <v>94785.102</v>
       </c>
       <c r="C2">
-        <v>124.254</v>
+        <v>220.138</v>
       </c>
       <c r="D2">
-        <v>0.067</v>
+        <v>2361.43</v>
+      </c>
+      <c r="G2">
+        <v>15.585</v>
       </c>
       <c r="J2">
-        <v>0.067</v>
+        <v>0.622</v>
+      </c>
+      <c r="K2">
+        <v>18.86</v>
+      </c>
+      <c r="O2">
+        <v>2361.4299</v>
       </c>
       <c r="U2">
-        <v>4077.6277</v>
+        <v>23207.313</v>
       </c>
       <c r="V2">
-        <v>2155.688</v>
+        <v>13728</v>
       </c>
       <c r="W2">
-        <v>3833.1857</v>
+        <v>9042.313</v>
       </c>
       <c r="X2" t="s">
         <v>112</v>
       </c>
       <c r="Y2">
-        <v>233.946</v>
+        <v>422.4471</v>
       </c>
       <c r="Z2">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="AA2">
-        <v>282.442</v>
+        <v>12674</v>
       </c>
       <c r="AB2">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="AC2">
-        <v>1937.981</v>
+        <v>32787</v>
       </c>
     </row>
   </sheetData>
@@ -14931,8 +14661,38 @@
       <c r="A2" t="s">
         <v>113</v>
       </c>
+      <c r="B2">
+        <v>14900</v>
+      </c>
+      <c r="C2">
+        <v>3100</v>
+      </c>
+      <c r="U2">
+        <v>73340.08379999999</v>
+      </c>
+      <c r="V2">
+        <v>19200</v>
+      </c>
+      <c r="W2">
+        <v>40638.0838</v>
+      </c>
       <c r="X2" t="s">
         <v>114</v>
+      </c>
+      <c r="Y2">
+        <v>2258</v>
+      </c>
+      <c r="Z2">
+        <v>18.08</v>
+      </c>
+      <c r="AA2">
+        <v>32075</v>
+      </c>
+      <c r="AB2">
+        <v>745</v>
+      </c>
+      <c r="AC2">
+        <v>70078</v>
       </c>
     </row>
   </sheetData>
@@ -15042,52 +14802,73 @@
         <v>115</v>
       </c>
       <c r="B2">
-        <v>94785.102</v>
+        <v>16300</v>
       </c>
       <c r="C2">
-        <v>220.138</v>
+        <v>1800</v>
       </c>
       <c r="D2">
-        <v>2361.43</v>
+        <v>143600</v>
+      </c>
+      <c r="E2">
+        <v>9800</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>15.585</v>
+        <v>3500</v>
+      </c>
+      <c r="H2">
+        <v>2100</v>
       </c>
       <c r="J2">
-        <v>0.622</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.86</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>500</v>
+      </c>
+      <c r="N2">
+        <v>9800</v>
       </c>
       <c r="O2">
-        <v>2361.4299</v>
+        <v>117800</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>23207.313</v>
+        <v>57804.4213</v>
       </c>
       <c r="V2">
-        <v>13728</v>
+        <v>74361</v>
       </c>
       <c r="W2">
-        <v>9042.313</v>
+        <v>50154.4213</v>
       </c>
       <c r="X2" t="s">
         <v>116</v>
       </c>
       <c r="Y2">
-        <v>422.4471</v>
+        <v>1951.3</v>
       </c>
       <c r="Z2">
-        <v>23.2</v>
+        <v>26.27</v>
       </c>
       <c r="AA2">
-        <v>12674</v>
+        <v>11642</v>
       </c>
       <c r="AB2">
-        <v>455</v>
+        <v>4524</v>
       </c>
       <c r="AC2">
-        <v>32787</v>
+        <v>55869</v>
       </c>
     </row>
   </sheetData>
@@ -15196,38 +14977,17 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2">
-        <v>14900</v>
-      </c>
-      <c r="C2">
-        <v>3100</v>
-      </c>
-      <c r="U2">
-        <v>73340.08379999999</v>
-      </c>
-      <c r="V2">
-        <v>19200</v>
-      </c>
-      <c r="W2">
-        <v>40638.0838</v>
-      </c>
       <c r="X2" t="s">
         <v>118</v>
       </c>
-      <c r="Y2">
-        <v>2258</v>
-      </c>
-      <c r="Z2">
-        <v>18.08</v>
-      </c>
       <c r="AA2">
-        <v>32075</v>
+        <v>22710</v>
       </c>
       <c r="AB2">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>70078</v>
+        <v>264044</v>
       </c>
     </row>
   </sheetData>
@@ -15337,73 +15097,49 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>16300</v>
+        <v>33260.801</v>
       </c>
       <c r="C2">
-        <v>1800</v>
+        <v>384.232</v>
       </c>
       <c r="D2">
-        <v>143600</v>
+        <v>29279.301</v>
       </c>
       <c r="E2">
-        <v>9800</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
+        <v>3384.0901</v>
       </c>
       <c r="G2">
-        <v>3500</v>
-      </c>
-      <c r="H2">
-        <v>2100</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>500</v>
-      </c>
-      <c r="N2">
-        <v>9800</v>
+        <v>13377.7998</v>
       </c>
       <c r="O2">
-        <v>117800</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+        <v>12517.2998</v>
       </c>
       <c r="U2">
-        <v>57804.4213</v>
+        <v>94763.2</v>
       </c>
       <c r="V2">
-        <v>74361</v>
+        <v>17174</v>
       </c>
       <c r="W2">
-        <v>50154.4213</v>
+        <v>51202.2</v>
       </c>
       <c r="X2" t="s">
         <v>120</v>
       </c>
       <c r="Y2">
-        <v>1951.3</v>
+        <v>823.9</v>
       </c>
       <c r="Z2">
-        <v>26.27</v>
+        <v>61.32</v>
       </c>
       <c r="AA2">
-        <v>11642</v>
+        <v>41897</v>
       </c>
       <c r="AB2">
-        <v>4524</v>
+        <v>119</v>
       </c>
       <c r="AC2">
-        <v>55869</v>
+        <v>104795</v>
       </c>
     </row>
   </sheetData>
@@ -15512,17 +15248,38 @@
       <c r="A2" t="s">
         <v>121</v>
       </c>
+      <c r="B2">
+        <v>69200</v>
+      </c>
+      <c r="C2">
+        <v>48440</v>
+      </c>
+      <c r="U2">
+        <v>175056.0618</v>
+      </c>
+      <c r="V2">
+        <v>290987.942</v>
+      </c>
+      <c r="W2">
+        <v>70661.0558</v>
+      </c>
       <c r="X2" t="s">
         <v>122</v>
       </c>
+      <c r="Y2">
+        <v>17022.673</v>
+      </c>
+      <c r="Z2">
+        <v>4.47</v>
+      </c>
       <c r="AA2">
-        <v>22710</v>
+        <v>86456.118</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>15414.067</v>
       </c>
       <c r="AC2">
-        <v>264044</v>
+        <v>212347.896</v>
       </c>
     </row>
   </sheetData>
@@ -15632,49 +15389,58 @@
         <v>123</v>
       </c>
       <c r="B2">
-        <v>33260.801</v>
+        <v>40011.5</v>
       </c>
       <c r="C2">
-        <v>384.232</v>
+        <v>266.484</v>
       </c>
       <c r="D2">
-        <v>29279.301</v>
+        <v>10379.6</v>
       </c>
       <c r="E2">
-        <v>3384.0901</v>
+        <v>0.5145999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.0483</v>
       </c>
       <c r="G2">
-        <v>13377.7998</v>
-      </c>
-      <c r="O2">
-        <v>12517.2998</v>
+        <v>7204.5898</v>
+      </c>
+      <c r="J2">
+        <v>0.314</v>
+      </c>
+      <c r="K2">
+        <v>0.09080000000000001</v>
+      </c>
+      <c r="T2">
+        <v>3174</v>
       </c>
       <c r="U2">
-        <v>94763.2</v>
+        <v>45428.062</v>
       </c>
       <c r="V2">
-        <v>17174</v>
+        <v>12617</v>
       </c>
       <c r="W2">
-        <v>51202.2</v>
+        <v>19233.062</v>
       </c>
       <c r="X2" t="s">
         <v>124</v>
       </c>
       <c r="Y2">
-        <v>823.9</v>
+        <v>668</v>
       </c>
       <c r="Z2">
-        <v>61.32</v>
+        <v>28.76</v>
       </c>
       <c r="AA2">
-        <v>41897</v>
+        <v>24073</v>
       </c>
       <c r="AB2">
-        <v>119</v>
+        <v>2104</v>
       </c>
       <c r="AC2">
-        <v>104795</v>
+        <v>38363</v>
       </c>
     </row>
   </sheetData>
@@ -15784,37 +15550,43 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>69200</v>
+        <v>1487.28</v>
       </c>
       <c r="C2">
-        <v>48440</v>
+        <v>674.087</v>
+      </c>
+      <c r="D2">
+        <v>45090.602</v>
+      </c>
+      <c r="O2">
+        <v>45090.6016</v>
       </c>
       <c r="U2">
-        <v>175056.0618</v>
+        <v>31370.6242</v>
       </c>
       <c r="V2">
-        <v>290987.942</v>
+        <v>9643</v>
       </c>
       <c r="W2">
-        <v>70661.0558</v>
+        <v>24598.6242</v>
       </c>
       <c r="X2" t="s">
         <v>126</v>
       </c>
       <c r="Y2">
-        <v>17022.673</v>
+        <v>176.539</v>
       </c>
       <c r="Z2">
-        <v>4.47</v>
+        <v>136.78</v>
       </c>
       <c r="AA2">
-        <v>86456.118</v>
+        <v>6248</v>
       </c>
       <c r="AB2">
-        <v>15414.067</v>
+        <v>157</v>
       </c>
       <c r="AC2">
-        <v>212347.896</v>
+        <v>26209</v>
       </c>
     </row>
   </sheetData>
@@ -16076,58 +15848,37 @@
         <v>127</v>
       </c>
       <c r="B2">
-        <v>40011.5</v>
+        <v>2339.95</v>
       </c>
       <c r="C2">
-        <v>266.484</v>
-      </c>
-      <c r="D2">
-        <v>10379.6</v>
-      </c>
-      <c r="E2">
-        <v>0.5145999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.0483</v>
-      </c>
-      <c r="G2">
-        <v>7204.5898</v>
-      </c>
-      <c r="J2">
-        <v>0.314</v>
-      </c>
-      <c r="K2">
-        <v>0.09080000000000001</v>
-      </c>
-      <c r="T2">
-        <v>3174</v>
+        <v>16.245</v>
       </c>
       <c r="U2">
-        <v>45428.062</v>
+        <v>10999.0797</v>
       </c>
       <c r="V2">
-        <v>12617</v>
+        <v>1357.747</v>
       </c>
       <c r="W2">
-        <v>19233.062</v>
+        <v>2899.6327</v>
       </c>
       <c r="X2" t="s">
         <v>128</v>
       </c>
       <c r="Y2">
-        <v>668</v>
+        <v>433.341</v>
       </c>
       <c r="Z2">
-        <v>28.76</v>
+        <v>6.7</v>
       </c>
       <c r="AA2">
-        <v>24073</v>
+        <v>7006.104</v>
       </c>
       <c r="AB2">
-        <v>2104</v>
+        <v>67.898</v>
       </c>
       <c r="AC2">
-        <v>38363</v>
+        <v>10445.585</v>
       </c>
     </row>
   </sheetData>
@@ -16237,43 +15988,37 @@
         <v>129</v>
       </c>
       <c r="B2">
-        <v>1487.28</v>
+        <v>2933.54</v>
       </c>
       <c r="C2">
-        <v>674.087</v>
-      </c>
-      <c r="D2">
-        <v>45090.602</v>
-      </c>
-      <c r="O2">
-        <v>45090.6016</v>
+        <v>79.23</v>
       </c>
       <c r="U2">
-        <v>31370.6242</v>
+        <v>23768.2033</v>
       </c>
       <c r="V2">
-        <v>9643</v>
+        <v>8110.837</v>
       </c>
       <c r="W2">
-        <v>24598.6242</v>
+        <v>23138.9393</v>
       </c>
       <c r="X2" t="s">
         <v>130</v>
       </c>
       <c r="Y2">
-        <v>176.539</v>
+        <v>335.5977</v>
       </c>
       <c r="Z2">
-        <v>136.78</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="AA2">
-        <v>6248</v>
+        <v>629.264</v>
       </c>
       <c r="AB2">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>26209</v>
+        <v>18893.041</v>
       </c>
     </row>
   </sheetData>
@@ -16383,37 +16128,58 @@
         <v>131</v>
       </c>
       <c r="B2">
-        <v>2339.95</v>
+        <v>2834.29</v>
       </c>
       <c r="C2">
-        <v>16.245</v>
+        <v>1305.42</v>
+      </c>
+      <c r="D2">
+        <v>1733.46</v>
+      </c>
+      <c r="G2">
+        <v>291.341</v>
+      </c>
+      <c r="I2">
+        <v>50.362</v>
+      </c>
+      <c r="J2">
+        <v>0.46</v>
+      </c>
+      <c r="K2">
+        <v>9.641999999999999</v>
+      </c>
+      <c r="L2">
+        <v>3.471</v>
+      </c>
+      <c r="S2">
+        <v>1378.1899</v>
       </c>
       <c r="U2">
-        <v>10999.0797</v>
+        <v>38132</v>
       </c>
       <c r="V2">
-        <v>1357.747</v>
+        <v>11611</v>
       </c>
       <c r="W2">
-        <v>2899.6327</v>
+        <v>25278</v>
       </c>
       <c r="X2" t="s">
         <v>132</v>
       </c>
       <c r="Y2">
-        <v>433.341</v>
+        <v>553</v>
       </c>
       <c r="Z2">
-        <v>6.7</v>
+        <v>45.96</v>
       </c>
       <c r="AA2">
-        <v>7006.104</v>
+        <v>10680</v>
       </c>
       <c r="AB2">
-        <v>67.898</v>
+        <v>94</v>
       </c>
       <c r="AC2">
-        <v>10445.585</v>
+        <v>31487</v>
       </c>
     </row>
   </sheetData>
@@ -16523,37 +16289,46 @@
         <v>133</v>
       </c>
       <c r="B2">
-        <v>2933.54</v>
+        <v>33700</v>
       </c>
       <c r="C2">
-        <v>79.23</v>
+        <v>6700</v>
+      </c>
+      <c r="D2">
+        <v>466000</v>
+      </c>
+      <c r="E2">
+        <v>62000</v>
+      </c>
+      <c r="O2">
+        <v>404000</v>
       </c>
       <c r="U2">
-        <v>23768.2033</v>
+        <v>76352.06</v>
       </c>
       <c r="V2">
-        <v>8110.837</v>
+        <v>179952</v>
       </c>
       <c r="W2">
-        <v>23138.9393</v>
+        <v>52841.06</v>
       </c>
       <c r="X2" t="s">
         <v>134</v>
       </c>
       <c r="Y2">
-        <v>335.5977</v>
+        <v>512</v>
       </c>
       <c r="Z2">
-        <v>68.31999999999999</v>
+        <v>116.39</v>
       </c>
       <c r="AA2">
-        <v>629.264</v>
+        <v>27909</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>11770</v>
       </c>
       <c r="AC2">
-        <v>18893.041</v>
+        <v>89904</v>
       </c>
     </row>
   </sheetData>
@@ -16663,58 +16438,76 @@
         <v>135</v>
       </c>
       <c r="B2">
-        <v>2834.29</v>
+        <v>292.872</v>
       </c>
       <c r="C2">
-        <v>1305.42</v>
+        <v>91.509</v>
       </c>
       <c r="D2">
-        <v>1733.46</v>
-      </c>
-      <c r="G2">
-        <v>291.341</v>
+        <v>370.931</v>
+      </c>
+      <c r="E2">
+        <v>58.258</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>50.362</v>
+        <v>0.548</v>
       </c>
       <c r="J2">
-        <v>0.46</v>
+        <v>0.023</v>
       </c>
       <c r="K2">
-        <v>9.641999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.471</v>
-      </c>
-      <c r="S2">
-        <v>1378.1899</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>312.102</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>38132</v>
+        <v>3027.6745</v>
       </c>
       <c r="V2">
-        <v>11611</v>
+        <v>1745.975</v>
       </c>
       <c r="W2">
-        <v>25278</v>
+        <v>2737.4425</v>
       </c>
       <c r="X2" t="s">
         <v>136</v>
       </c>
       <c r="Y2">
-        <v>553</v>
+        <v>226.733</v>
       </c>
       <c r="Z2">
-        <v>45.96</v>
+        <v>12.48</v>
       </c>
       <c r="AA2">
-        <v>10680</v>
+        <v>332.122</v>
       </c>
       <c r="AB2">
-        <v>94</v>
+        <v>41.89</v>
       </c>
       <c r="AC2">
-        <v>31487</v>
+        <v>2821.666</v>
       </c>
     </row>
   </sheetData>
@@ -16824,46 +16617,49 @@
         <v>137</v>
       </c>
       <c r="B2">
-        <v>33700</v>
+        <v>7164.58</v>
       </c>
       <c r="C2">
-        <v>6700</v>
+        <v>263.829</v>
       </c>
       <c r="D2">
-        <v>466000</v>
-      </c>
-      <c r="E2">
-        <v>62000</v>
+        <v>66649.29700000001</v>
+      </c>
+      <c r="G2">
+        <v>171.202</v>
+      </c>
+      <c r="J2">
+        <v>3.815</v>
       </c>
       <c r="O2">
-        <v>404000</v>
+        <v>66474.29700000001</v>
       </c>
       <c r="U2">
-        <v>76352.06</v>
+        <v>80593.561</v>
       </c>
       <c r="V2">
-        <v>179952</v>
+        <v>14439</v>
       </c>
       <c r="W2">
-        <v>52841.06</v>
+        <v>48525.56</v>
       </c>
       <c r="X2" t="s">
         <v>138</v>
       </c>
       <c r="Y2">
-        <v>512</v>
+        <v>630.318</v>
       </c>
       <c r="Z2">
-        <v>116.39</v>
+        <v>77.27</v>
       </c>
       <c r="AA2">
-        <v>27909</v>
+        <v>29500</v>
       </c>
       <c r="AB2">
-        <v>11770</v>
+        <v>370</v>
       </c>
       <c r="AC2">
-        <v>89904</v>
+        <v>78574</v>
       </c>
     </row>
   </sheetData>
@@ -16972,77 +16768,8 @@
       <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2">
-        <v>292.872</v>
-      </c>
-      <c r="C2">
-        <v>91.509</v>
-      </c>
-      <c r="D2">
-        <v>370.931</v>
-      </c>
-      <c r="E2">
-        <v>58.258</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.548</v>
-      </c>
-      <c r="J2">
-        <v>0.023</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>312.102</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>3027.6745</v>
-      </c>
-      <c r="V2">
-        <v>1745.975</v>
-      </c>
-      <c r="W2">
-        <v>2737.4425</v>
-      </c>
       <c r="X2" t="s">
         <v>140</v>
-      </c>
-      <c r="Y2">
-        <v>226.733</v>
-      </c>
-      <c r="Z2">
-        <v>12.48</v>
-      </c>
-      <c r="AA2">
-        <v>332.122</v>
-      </c>
-      <c r="AB2">
-        <v>41.89</v>
-      </c>
-      <c r="AC2">
-        <v>2821.666</v>
       </c>
     </row>
   </sheetData>
@@ -17152,49 +16879,37 @@
         <v>141</v>
       </c>
       <c r="B2">
-        <v>7164.58</v>
+        <v>1283.97</v>
       </c>
       <c r="C2">
-        <v>263.829</v>
-      </c>
-      <c r="D2">
-        <v>66649.29700000001</v>
-      </c>
-      <c r="G2">
-        <v>171.202</v>
-      </c>
-      <c r="J2">
-        <v>3.815</v>
-      </c>
-      <c r="O2">
-        <v>66474.29700000001</v>
+        <v>3.64</v>
       </c>
       <c r="U2">
-        <v>80593.561</v>
+        <v>10951.5957</v>
       </c>
       <c r="V2">
-        <v>14439</v>
+        <v>15002</v>
       </c>
       <c r="W2">
-        <v>48525.56</v>
+        <v>6434.5957</v>
       </c>
       <c r="X2" t="s">
         <v>142</v>
       </c>
       <c r="Y2">
-        <v>630.318</v>
+        <v>1110.5648</v>
       </c>
       <c r="Z2">
-        <v>77.27</v>
+        <v>5.85</v>
       </c>
       <c r="AA2">
-        <v>29500</v>
+        <v>4567</v>
       </c>
       <c r="AB2">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="AC2">
-        <v>78574</v>
+        <v>12926</v>
       </c>
     </row>
   </sheetData>
@@ -17414,37 +17129,64 @@
         <v>145</v>
       </c>
       <c r="B2">
-        <v>1283.97</v>
+        <v>47745.898</v>
       </c>
       <c r="C2">
-        <v>3.64</v>
+        <v>156.457</v>
+      </c>
+      <c r="D2">
+        <v>443284</v>
+      </c>
+      <c r="E2">
+        <v>2193.65</v>
+      </c>
+      <c r="G2">
+        <v>971.705</v>
+      </c>
+      <c r="H2">
+        <v>2596.47</v>
+      </c>
+      <c r="I2">
+        <v>38.215</v>
+      </c>
+      <c r="J2">
+        <v>8.316000000000001</v>
+      </c>
+      <c r="K2">
+        <v>25.944</v>
+      </c>
+      <c r="N2">
+        <v>16931.801</v>
+      </c>
+      <c r="O2">
+        <v>420518</v>
       </c>
       <c r="U2">
-        <v>10951.5957</v>
+        <v>537724.9309</v>
       </c>
       <c r="V2">
-        <v>15002</v>
+        <v>641256</v>
       </c>
       <c r="W2">
-        <v>6434.5957</v>
+        <v>319582.9309</v>
       </c>
       <c r="X2" t="s">
         <v>146</v>
       </c>
       <c r="Y2">
-        <v>1110.5648</v>
+        <v>13044.2013</v>
       </c>
       <c r="Z2">
-        <v>5.85</v>
+        <v>24.5</v>
       </c>
       <c r="AA2">
-        <v>4567</v>
+        <v>280703</v>
       </c>
       <c r="AB2">
-        <v>50</v>
+        <v>64352</v>
       </c>
       <c r="AC2">
-        <v>12926</v>
+        <v>976709</v>
       </c>
     </row>
   </sheetData>
@@ -17785,65 +17527,8 @@
       <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2">
-        <v>47745.898</v>
-      </c>
-      <c r="C2">
-        <v>156.457</v>
-      </c>
-      <c r="D2">
-        <v>443284</v>
-      </c>
-      <c r="E2">
-        <v>2193.65</v>
-      </c>
-      <c r="G2">
-        <v>971.705</v>
-      </c>
-      <c r="H2">
-        <v>2596.47</v>
-      </c>
-      <c r="I2">
-        <v>38.215</v>
-      </c>
-      <c r="J2">
-        <v>8.316000000000001</v>
-      </c>
-      <c r="K2">
-        <v>25.944</v>
-      </c>
-      <c r="N2">
-        <v>16931.801</v>
-      </c>
-      <c r="O2">
-        <v>420518</v>
-      </c>
-      <c r="U2">
-        <v>537724.9309</v>
-      </c>
-      <c r="V2">
-        <v>641256</v>
-      </c>
-      <c r="W2">
-        <v>319582.9309</v>
-      </c>
       <c r="X2" t="s">
         <v>150</v>
-      </c>
-      <c r="Y2">
-        <v>13044.2013</v>
-      </c>
-      <c r="Z2">
-        <v>24.5</v>
-      </c>
-      <c r="AA2">
-        <v>280703</v>
-      </c>
-      <c r="AB2">
-        <v>64352</v>
-      </c>
-      <c r="AC2">
-        <v>976709</v>
       </c>
     </row>
   </sheetData>
@@ -18062,8 +17747,47 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
+      <c r="B2">
+        <v>22.157</v>
+      </c>
+      <c r="C2">
+        <v>27.608</v>
+      </c>
+      <c r="D2">
+        <v>17.766</v>
+      </c>
+      <c r="E2">
+        <v>4.99</v>
+      </c>
+      <c r="J2">
+        <v>4.58</v>
+      </c>
+      <c r="Q2">
+        <v>8.196</v>
+      </c>
+      <c r="V2">
+        <v>21833</v>
+      </c>
+      <c r="W2">
+        <v>56053.681</v>
+      </c>
       <c r="X2" t="s">
         <v>154</v>
+      </c>
+      <c r="Y2">
+        <v>903.312</v>
+      </c>
+      <c r="Z2">
+        <v>61.87</v>
+      </c>
+      <c r="AA2">
+        <v>98747</v>
+      </c>
+      <c r="AB2">
+        <v>148400</v>
+      </c>
+      <c r="AC2">
+        <v>943597</v>
       </c>
     </row>
   </sheetData>
@@ -18175,6 +17899,15 @@
       <c r="X2" t="s">
         <v>156</v>
       </c>
+      <c r="AA2">
+        <v>15498763.81</v>
+      </c>
+      <c r="AB2">
+        <v>839721.2486</v>
+      </c>
+      <c r="AC2">
+        <v>18299094.64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18283,46 +18016,43 @@
         <v>157</v>
       </c>
       <c r="B2">
-        <v>22.157</v>
+        <v>697.691</v>
       </c>
       <c r="C2">
-        <v>27.608</v>
+        <v>5.294</v>
       </c>
       <c r="D2">
-        <v>17.766</v>
-      </c>
-      <c r="E2">
-        <v>4.99</v>
-      </c>
-      <c r="J2">
-        <v>4.58</v>
-      </c>
-      <c r="Q2">
-        <v>8.196</v>
+        <v>101018</v>
+      </c>
+      <c r="O2">
+        <v>101018</v>
+      </c>
+      <c r="U2">
+        <v>16669.4053</v>
       </c>
       <c r="V2">
-        <v>21833</v>
+        <v>7497.689</v>
       </c>
       <c r="W2">
-        <v>56053.681</v>
+        <v>12360.2303</v>
       </c>
       <c r="X2" t="s">
         <v>158</v>
       </c>
       <c r="Y2">
-        <v>903.312</v>
+        <v>370.048</v>
       </c>
       <c r="Z2">
-        <v>61.87</v>
+        <v>33.83</v>
       </c>
       <c r="AA2">
-        <v>98747</v>
+        <v>5726.965</v>
       </c>
       <c r="AB2">
-        <v>148400</v>
+        <v>1458.644</v>
       </c>
       <c r="AC2">
-        <v>943597</v>
+        <v>22669.926</v>
       </c>
     </row>
   </sheetData>
@@ -18431,17 +18161,68 @@
       <c r="A2" t="s">
         <v>159</v>
       </c>
+      <c r="B2">
+        <v>78800</v>
+      </c>
+      <c r="C2">
+        <v>420</v>
+      </c>
+      <c r="D2">
+        <v>38588</v>
+      </c>
+      <c r="E2">
+        <v>3800</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>26400</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>170</v>
+      </c>
+      <c r="N2">
+        <v>280</v>
+      </c>
+      <c r="O2">
+        <v>7900</v>
+      </c>
+      <c r="U2">
+        <v>160219.3</v>
+      </c>
+      <c r="V2">
+        <v>28768</v>
+      </c>
+      <c r="W2">
+        <v>79302.3</v>
+      </c>
       <c r="X2" t="s">
         <v>160</v>
       </c>
+      <c r="Y2">
+        <v>770</v>
+      </c>
+      <c r="Z2">
+        <v>102.99</v>
+      </c>
       <c r="AA2">
-        <v>15498763.81</v>
+        <v>76833</v>
       </c>
       <c r="AB2">
-        <v>839721.2486</v>
+        <v>409</v>
       </c>
       <c r="AC2">
-        <v>18299094.64</v>
+        <v>178086</v>
       </c>
     </row>
   </sheetData>
@@ -18551,43 +18332,55 @@
         <v>161</v>
       </c>
       <c r="B2">
-        <v>697.691</v>
+        <v>27081</v>
       </c>
       <c r="C2">
-        <v>5.294</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>101018</v>
+        <v>26197</v>
+      </c>
+      <c r="E2">
+        <v>297</v>
+      </c>
+      <c r="G2">
+        <v>3699</v>
+      </c>
+      <c r="H2">
+        <v>233</v>
       </c>
       <c r="O2">
-        <v>101018</v>
+        <v>8869</v>
+      </c>
+      <c r="T2">
+        <v>12535</v>
       </c>
       <c r="U2">
-        <v>16669.4053</v>
+        <v>43368.9751</v>
       </c>
       <c r="V2">
-        <v>7497.689</v>
+        <v>19228</v>
       </c>
       <c r="W2">
-        <v>12360.2303</v>
+        <v>24167.9751</v>
       </c>
       <c r="X2" t="s">
         <v>162</v>
       </c>
       <c r="Y2">
-        <v>370.048</v>
+        <v>195</v>
       </c>
       <c r="Z2">
-        <v>33.83</v>
+        <v>117.53</v>
       </c>
       <c r="AA2">
-        <v>5726.965</v>
+        <v>19240</v>
       </c>
       <c r="AB2">
-        <v>1458.644</v>
+        <v>33</v>
       </c>
       <c r="AC2">
-        <v>22669.926</v>
+        <v>42683</v>
       </c>
     </row>
   </sheetData>
@@ -18697,67 +18490,28 @@
         <v>163</v>
       </c>
       <c r="B2">
-        <v>78800</v>
+        <v>3000</v>
       </c>
       <c r="C2">
-        <v>420</v>
-      </c>
-      <c r="D2">
-        <v>38588</v>
-      </c>
-      <c r="E2">
-        <v>3800</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>26400</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>170</v>
-      </c>
-      <c r="N2">
-        <v>280</v>
-      </c>
-      <c r="O2">
-        <v>7900</v>
-      </c>
-      <c r="U2">
-        <v>160219.3</v>
-      </c>
-      <c r="V2">
-        <v>28768</v>
-      </c>
-      <c r="W2">
-        <v>79302.3</v>
+        <v>350</v>
       </c>
       <c r="X2" t="s">
         <v>164</v>
       </c>
       <c r="Y2">
-        <v>770</v>
+        <v>351.392</v>
       </c>
       <c r="Z2">
-        <v>102.99</v>
+        <v>74.27</v>
       </c>
       <c r="AA2">
-        <v>76833</v>
+        <v>8233.781000000001</v>
       </c>
       <c r="AB2">
-        <v>409</v>
+        <v>137.788</v>
       </c>
       <c r="AC2">
-        <v>178086</v>
+        <v>20878.35</v>
       </c>
     </row>
   </sheetData>
@@ -18867,55 +18621,64 @@
         <v>165</v>
       </c>
       <c r="B2">
-        <v>27081</v>
+        <v>24930.4</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>81.22199999999999</v>
       </c>
       <c r="D2">
-        <v>26197</v>
+        <v>21483.699</v>
       </c>
       <c r="E2">
-        <v>297</v>
+        <v>280.867</v>
+      </c>
+      <c r="F2">
+        <v>1216.23</v>
       </c>
       <c r="G2">
-        <v>3699</v>
+        <v>11475.7002</v>
       </c>
       <c r="H2">
-        <v>233</v>
+        <v>647.5599999999999</v>
+      </c>
+      <c r="I2">
+        <v>202.208</v>
+      </c>
+      <c r="J2">
+        <v>6.602</v>
+      </c>
+      <c r="K2">
+        <v>4.317</v>
       </c>
       <c r="O2">
-        <v>8869</v>
-      </c>
-      <c r="T2">
-        <v>12535</v>
+        <v>7650.21</v>
       </c>
       <c r="U2">
-        <v>43368.9751</v>
+        <v>37888.684</v>
       </c>
       <c r="V2">
-        <v>19228</v>
+        <v>7957</v>
       </c>
       <c r="W2">
-        <v>24167.9751</v>
+        <v>22914.684</v>
       </c>
       <c r="X2" t="s">
         <v>166</v>
       </c>
       <c r="Y2">
-        <v>195</v>
+        <v>258.4</v>
       </c>
       <c r="Z2">
-        <v>117.53</v>
+        <v>88.92</v>
       </c>
       <c r="AA2">
-        <v>19240</v>
+        <v>15095</v>
       </c>
       <c r="AB2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AC2">
-        <v>42683</v>
+        <v>37904</v>
       </c>
     </row>
   </sheetData>
@@ -19158,29 +18921,32 @@
       <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>350</v>
+      <c r="U2">
+        <v>99759.0665</v>
+      </c>
+      <c r="V2">
+        <v>89876</v>
+      </c>
+      <c r="W2">
+        <v>36731.0665</v>
       </c>
       <c r="X2" t="s">
         <v>168</v>
       </c>
       <c r="Y2">
-        <v>351.392</v>
+        <v>3086.8</v>
       </c>
       <c r="Z2">
-        <v>74.27</v>
+        <v>11.87</v>
       </c>
       <c r="AA2">
-        <v>8233.781000000001</v>
+        <v>49107</v>
       </c>
       <c r="AB2">
-        <v>137.788</v>
+        <v>257</v>
       </c>
       <c r="AC2">
-        <v>20878.35</v>
+        <v>105643</v>
       </c>
     </row>
   </sheetData>
@@ -19289,65 +19055,8 @@
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2">
-        <v>24930.4</v>
-      </c>
-      <c r="C2">
-        <v>81.22199999999999</v>
-      </c>
-      <c r="D2">
-        <v>21483.699</v>
-      </c>
-      <c r="E2">
-        <v>280.867</v>
-      </c>
-      <c r="F2">
-        <v>1216.23</v>
-      </c>
-      <c r="G2">
-        <v>11475.7002</v>
-      </c>
-      <c r="H2">
-        <v>647.5599999999999</v>
-      </c>
-      <c r="I2">
-        <v>202.208</v>
-      </c>
-      <c r="J2">
-        <v>6.602</v>
-      </c>
-      <c r="K2">
-        <v>4.317</v>
-      </c>
-      <c r="O2">
-        <v>7650.21</v>
-      </c>
-      <c r="U2">
-        <v>37888.684</v>
-      </c>
-      <c r="V2">
-        <v>7957</v>
-      </c>
-      <c r="W2">
-        <v>22914.684</v>
-      </c>
       <c r="X2" t="s">
         <v>170</v>
-      </c>
-      <c r="Y2">
-        <v>258.4</v>
-      </c>
-      <c r="Z2">
-        <v>88.92</v>
-      </c>
-      <c r="AA2">
-        <v>15095</v>
-      </c>
-      <c r="AB2">
-        <v>10</v>
-      </c>
-      <c r="AC2">
-        <v>37904</v>
       </c>
     </row>
   </sheetData>
@@ -19456,32 +19165,71 @@
       <c r="A2" t="s">
         <v>171</v>
       </c>
+      <c r="B2">
+        <v>51000</v>
+      </c>
+      <c r="C2">
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>1203750</v>
+      </c>
+      <c r="E2">
+        <v>144000</v>
+      </c>
+      <c r="G2">
+        <v>117000</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>3400</v>
+      </c>
+      <c r="M2">
+        <v>6000</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>910350</v>
+      </c>
+      <c r="P2">
+        <v>17000</v>
+      </c>
+      <c r="R2">
+        <v>1700</v>
+      </c>
+      <c r="S2">
+        <v>1100</v>
+      </c>
       <c r="U2">
-        <v>99759.0665</v>
+        <v>241953.0607</v>
       </c>
       <c r="V2">
-        <v>89876</v>
+        <v>381314</v>
       </c>
       <c r="W2">
-        <v>36731.0665</v>
+        <v>196279.0607</v>
       </c>
       <c r="X2" t="s">
         <v>172</v>
       </c>
       <c r="Y2">
-        <v>3086.8</v>
+        <v>7347.5</v>
       </c>
       <c r="Z2">
-        <v>11.87</v>
+        <v>1895.2</v>
       </c>
       <c r="AA2">
-        <v>49107</v>
+        <v>83795</v>
       </c>
       <c r="AB2">
-        <v>257</v>
+        <v>40246</v>
       </c>
       <c r="AC2">
-        <v>105643</v>
+        <v>443024</v>
       </c>
     </row>
   </sheetData>
@@ -19700,71 +19448,8 @@
       <c r="A2" t="s">
         <v>175</v>
       </c>
-      <c r="B2">
-        <v>51000</v>
-      </c>
-      <c r="C2">
-        <v>8000</v>
-      </c>
-      <c r="D2">
-        <v>1203750</v>
-      </c>
-      <c r="E2">
-        <v>144000</v>
-      </c>
-      <c r="G2">
-        <v>117000</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>3400</v>
-      </c>
-      <c r="M2">
-        <v>6000</v>
-      </c>
-      <c r="N2">
-        <v>3000</v>
-      </c>
-      <c r="O2">
-        <v>910350</v>
-      </c>
-      <c r="P2">
-        <v>17000</v>
-      </c>
-      <c r="R2">
-        <v>1700</v>
-      </c>
-      <c r="S2">
-        <v>1100</v>
-      </c>
-      <c r="U2">
-        <v>241953.0607</v>
-      </c>
-      <c r="V2">
-        <v>381314</v>
-      </c>
-      <c r="W2">
-        <v>196279.0607</v>
-      </c>
       <c r="X2" t="s">
         <v>176</v>
-      </c>
-      <c r="Y2">
-        <v>7347.5</v>
-      </c>
-      <c r="Z2">
-        <v>1895.2</v>
-      </c>
-      <c r="AA2">
-        <v>83795</v>
-      </c>
-      <c r="AB2">
-        <v>40246</v>
-      </c>
-      <c r="AC2">
-        <v>443024</v>
       </c>
     </row>
   </sheetData>
@@ -19873,8 +19558,53 @@
       <c r="A2" t="s">
         <v>177</v>
       </c>
+      <c r="B2">
+        <v>21132.199</v>
+      </c>
+      <c r="C2">
+        <v>2113.83</v>
+      </c>
+      <c r="D2">
+        <v>3518.84</v>
+      </c>
+      <c r="G2">
+        <v>3480.79</v>
+      </c>
+      <c r="I2">
+        <v>22.901</v>
+      </c>
+      <c r="J2">
+        <v>6.358</v>
+      </c>
+      <c r="L2">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="U2">
+        <v>115689.64</v>
+      </c>
+      <c r="V2">
+        <v>14977</v>
+      </c>
+      <c r="W2">
+        <v>54951.64</v>
+      </c>
       <c r="X2" t="s">
         <v>178</v>
+      </c>
+      <c r="Y2">
+        <v>995</v>
+      </c>
+      <c r="Z2">
+        <v>53.98</v>
+      </c>
+      <c r="AA2">
+        <v>58733</v>
+      </c>
+      <c r="AB2">
+        <v>620</v>
+      </c>
+      <c r="AC2">
+        <v>114348</v>
       </c>
     </row>
   </sheetData>
@@ -19983,8 +19713,71 @@
       <c r="A2" t="s">
         <v>179</v>
       </c>
+      <c r="B2">
+        <v>84875.102</v>
+      </c>
+      <c r="C2">
+        <v>236.359</v>
+      </c>
+      <c r="D2">
+        <v>38517.801</v>
+      </c>
+      <c r="E2">
+        <v>1281.99</v>
+      </c>
+      <c r="F2">
+        <v>968.876</v>
+      </c>
+      <c r="G2">
+        <v>15903.2998</v>
+      </c>
+      <c r="H2">
+        <v>30.749</v>
+      </c>
+      <c r="I2">
+        <v>24.956</v>
+      </c>
+      <c r="J2">
+        <v>19.661</v>
+      </c>
+      <c r="K2">
+        <v>33.128</v>
+      </c>
+      <c r="L2">
+        <v>16.296</v>
+      </c>
+      <c r="O2">
+        <v>20238.6992</v>
+      </c>
+      <c r="S2">
+        <v>0.127</v>
+      </c>
+      <c r="U2">
+        <v>139821.59</v>
+      </c>
+      <c r="V2">
+        <v>29279</v>
+      </c>
+      <c r="W2">
+        <v>78479.59</v>
+      </c>
       <c r="X2" t="s">
         <v>180</v>
+      </c>
+      <c r="Y2">
+        <v>1075</v>
+      </c>
+      <c r="Z2">
+        <v>71.41</v>
+      </c>
+      <c r="AA2">
+        <v>59135</v>
+      </c>
+      <c r="AB2">
+        <v>1917</v>
+      </c>
+      <c r="AC2">
+        <v>134891</v>
       </c>
     </row>
   </sheetData>
@@ -20094,52 +19887,37 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <v>21132.199</v>
+        <v>14200</v>
       </c>
       <c r="C2">
-        <v>2113.83</v>
-      </c>
-      <c r="D2">
-        <v>3518.84</v>
-      </c>
-      <c r="G2">
-        <v>3480.79</v>
-      </c>
-      <c r="I2">
-        <v>22.901</v>
-      </c>
-      <c r="J2">
-        <v>6.358</v>
-      </c>
-      <c r="L2">
-        <v>8.789999999999999</v>
+        <v>730</v>
       </c>
       <c r="U2">
-        <v>115689.64</v>
+        <v>39181.8904</v>
       </c>
       <c r="V2">
-        <v>14977</v>
+        <v>59670</v>
       </c>
       <c r="W2">
-        <v>54951.64</v>
+        <v>38524.8904</v>
       </c>
       <c r="X2" t="s">
         <v>182</v>
       </c>
       <c r="Y2">
-        <v>995</v>
+        <v>641.5</v>
       </c>
       <c r="Z2">
-        <v>53.98</v>
+        <v>65.95</v>
       </c>
       <c r="AA2">
-        <v>58733</v>
+        <v>4406</v>
       </c>
       <c r="AB2">
-        <v>620</v>
+        <v>3749</v>
       </c>
       <c r="AC2">
-        <v>114348</v>
+        <v>43524</v>
       </c>
     </row>
   </sheetData>
@@ -20249,70 +20027,37 @@
         <v>183</v>
       </c>
       <c r="B2">
-        <v>84875.102</v>
+        <v>483.762</v>
       </c>
       <c r="C2">
-        <v>236.359</v>
-      </c>
-      <c r="D2">
-        <v>38517.801</v>
-      </c>
-      <c r="E2">
-        <v>1281.99</v>
-      </c>
-      <c r="F2">
-        <v>968.876</v>
-      </c>
-      <c r="G2">
-        <v>15903.2998</v>
-      </c>
-      <c r="H2">
-        <v>30.749</v>
-      </c>
-      <c r="I2">
-        <v>24.956</v>
-      </c>
-      <c r="J2">
-        <v>19.661</v>
-      </c>
-      <c r="K2">
-        <v>33.128</v>
-      </c>
-      <c r="L2">
-        <v>16.296</v>
-      </c>
-      <c r="O2">
-        <v>20238.6992</v>
-      </c>
-      <c r="S2">
-        <v>0.127</v>
+        <v>76.68899999999999</v>
       </c>
       <c r="U2">
-        <v>139821.59</v>
+        <v>4241.78</v>
       </c>
       <c r="V2">
-        <v>29279</v>
+        <v>2252.4</v>
       </c>
       <c r="W2">
-        <v>78479.59</v>
+        <v>4066.88</v>
       </c>
       <c r="X2" t="s">
         <v>184</v>
       </c>
       <c r="Y2">
-        <v>1075</v>
+        <v>140.8</v>
       </c>
       <c r="Z2">
-        <v>71.41</v>
+        <v>28.64</v>
       </c>
       <c r="AA2">
-        <v>59135</v>
+        <v>177.4</v>
       </c>
       <c r="AB2">
-        <v>1917</v>
+        <v>2.5</v>
       </c>
       <c r="AC2">
-        <v>134891</v>
+        <v>4337.3</v>
       </c>
     </row>
   </sheetData>
@@ -20422,37 +20167,55 @@
         <v>185</v>
       </c>
       <c r="B2">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>730</v>
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.0206</v>
+      </c>
+      <c r="I2">
+        <v>0.0036</v>
+      </c>
+      <c r="J2">
+        <v>0.037</v>
+      </c>
+      <c r="K2">
+        <v>0.0222</v>
+      </c>
+      <c r="T2">
+        <v>0.0005999999999999999</v>
       </c>
       <c r="U2">
-        <v>39181.8904</v>
+        <v>24980.6182</v>
       </c>
       <c r="V2">
-        <v>59670</v>
+        <v>1315.7</v>
       </c>
       <c r="W2">
-        <v>38524.8904</v>
+        <v>26177.1182</v>
       </c>
       <c r="X2" t="s">
         <v>186</v>
       </c>
       <c r="Y2">
-        <v>641.5</v>
+        <v>191.5</v>
       </c>
       <c r="Z2">
-        <v>65.95</v>
+        <v>184.57</v>
       </c>
       <c r="AA2">
-        <v>4406</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3749</v>
+        <v>1196.5</v>
       </c>
       <c r="AC2">
-        <v>43524</v>
+        <v>6626.8</v>
       </c>
     </row>
   </sheetData>
@@ -20702,37 +20465,70 @@
         <v>187</v>
       </c>
       <c r="B2">
-        <v>483.762</v>
+        <v>51000</v>
       </c>
       <c r="C2">
-        <v>76.68899999999999</v>
+        <v>8000</v>
+      </c>
+      <c r="D2">
+        <v>1203750</v>
+      </c>
+      <c r="E2">
+        <v>144000</v>
+      </c>
+      <c r="G2">
+        <v>117000</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>3400</v>
+      </c>
+      <c r="M2">
+        <v>6000</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>910350</v>
+      </c>
+      <c r="P2">
+        <v>17000</v>
+      </c>
+      <c r="R2">
+        <v>1700</v>
+      </c>
+      <c r="S2">
+        <v>1100</v>
       </c>
       <c r="U2">
-        <v>4241.78</v>
+        <v>241953.0607</v>
       </c>
       <c r="V2">
-        <v>2252.4</v>
+        <v>381314</v>
       </c>
       <c r="W2">
-        <v>4066.88</v>
+        <v>196279.0607</v>
       </c>
       <c r="X2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="Y2">
-        <v>140.8</v>
+        <v>7347.5</v>
       </c>
       <c r="Z2">
-        <v>28.64</v>
+        <v>2326</v>
       </c>
       <c r="AA2">
-        <v>177.4</v>
+        <v>83795</v>
       </c>
       <c r="AB2">
-        <v>2.5</v>
+        <v>40246</v>
       </c>
       <c r="AC2">
-        <v>4337.3</v>
+        <v>443024</v>
       </c>
     </row>
   </sheetData>
@@ -20839,58 +20635,40 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2">
+        <v>13233.4</v>
+      </c>
+      <c r="C2">
+        <v>0.452</v>
+      </c>
+      <c r="U2">
+        <v>22579.1615</v>
+      </c>
+      <c r="V2">
+        <v>4205</v>
+      </c>
+      <c r="W2">
+        <v>13865.1615</v>
+      </c>
+      <c r="X2" t="s">
         <v>189</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.0206</v>
-      </c>
-      <c r="I2">
-        <v>0.0036</v>
-      </c>
-      <c r="J2">
-        <v>0.037</v>
-      </c>
-      <c r="K2">
-        <v>0.0222</v>
-      </c>
-      <c r="T2">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="U2">
-        <v>24980.6182</v>
-      </c>
-      <c r="V2">
-        <v>1315.7</v>
-      </c>
-      <c r="W2">
-        <v>26177.1182</v>
-      </c>
-      <c r="X2" t="s">
-        <v>190</v>
-      </c>
       <c r="Y2">
-        <v>191.5</v>
+        <v>250.9</v>
       </c>
       <c r="Z2">
-        <v>184.57</v>
+        <v>55.21</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>8734</v>
       </c>
       <c r="AB2">
-        <v>1196.5</v>
+        <v>20</v>
       </c>
       <c r="AC2">
-        <v>6626.8</v>
+        <v>20163</v>
       </c>
     </row>
   </sheetData>
@@ -20997,73 +20775,34 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="U2">
+        <v>343.3887</v>
+      </c>
+      <c r="V2">
+        <v>359.064</v>
+      </c>
+      <c r="W2">
+        <v>158.0197</v>
+      </c>
+      <c r="X2" t="s">
         <v>191</v>
       </c>
-      <c r="B2">
-        <v>51000</v>
-      </c>
-      <c r="C2">
-        <v>8000</v>
-      </c>
-      <c r="D2">
-        <v>1203750</v>
-      </c>
-      <c r="E2">
-        <v>144000</v>
-      </c>
-      <c r="G2">
-        <v>117000</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>3400</v>
-      </c>
-      <c r="M2">
-        <v>6000</v>
-      </c>
-      <c r="N2">
-        <v>3000</v>
-      </c>
-      <c r="O2">
-        <v>910350</v>
-      </c>
-      <c r="P2">
-        <v>17000</v>
-      </c>
-      <c r="R2">
-        <v>1700</v>
-      </c>
-      <c r="S2">
-        <v>1100</v>
-      </c>
-      <c r="U2">
-        <v>241953.0607</v>
-      </c>
-      <c r="V2">
-        <v>381314</v>
-      </c>
-      <c r="W2">
-        <v>196279.0607</v>
-      </c>
-      <c r="X2" t="s">
-        <v>176</v>
-      </c>
       <c r="Y2">
-        <v>7347.5</v>
+        <v>16.331</v>
       </c>
       <c r="Z2">
-        <v>2326</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AA2">
-        <v>83795</v>
+        <v>218.095</v>
       </c>
       <c r="AB2">
-        <v>40246</v>
+        <v>32.726</v>
       </c>
       <c r="AC2">
-        <v>443024</v>
+        <v>485.358</v>
       </c>
     </row>
   </sheetData>
@@ -21173,37 +20912,40 @@
         <v>192</v>
       </c>
       <c r="B2">
-        <v>13233.4</v>
-      </c>
-      <c r="C2">
-        <v>0.452</v>
+        <v>53000</v>
+      </c>
+      <c r="D2">
+        <v>592000</v>
+      </c>
+      <c r="O2">
+        <v>592000</v>
       </c>
       <c r="U2">
-        <v>22579.1615</v>
+        <v>354191.1814</v>
       </c>
       <c r="V2">
-        <v>4205</v>
+        <v>246252</v>
       </c>
       <c r="W2">
-        <v>13865.1615</v>
+        <v>343762.1814</v>
       </c>
       <c r="X2" t="s">
         <v>193</v>
       </c>
       <c r="Y2">
-        <v>250.9</v>
+        <v>1931</v>
       </c>
       <c r="Z2">
-        <v>55.21</v>
+        <v>179.49</v>
       </c>
       <c r="AA2">
-        <v>8734</v>
+        <v>27370</v>
       </c>
       <c r="AB2">
-        <v>20</v>
+        <v>17901</v>
       </c>
       <c r="AC2">
-        <v>20163</v>
+        <v>257709</v>
       </c>
     </row>
   </sheetData>
@@ -21312,32 +21054,53 @@
       <c r="A2" t="s">
         <v>194</v>
       </c>
+      <c r="B2">
+        <v>53066.398</v>
+      </c>
+      <c r="C2">
+        <v>4023.26</v>
+      </c>
+      <c r="D2">
+        <v>75799.79700000001</v>
+      </c>
+      <c r="E2">
+        <v>14180</v>
+      </c>
+      <c r="G2">
+        <v>38710</v>
+      </c>
+      <c r="H2">
+        <v>9.842000000000001</v>
+      </c>
+      <c r="O2">
+        <v>22900</v>
+      </c>
       <c r="U2">
-        <v>343.3887</v>
+        <v>138323.4165</v>
       </c>
       <c r="V2">
-        <v>359.064</v>
+        <v>140517</v>
       </c>
       <c r="W2">
-        <v>158.0197</v>
+        <v>51102.4165</v>
       </c>
       <c r="X2" t="s">
         <v>195</v>
       </c>
       <c r="Y2">
-        <v>16.331</v>
+        <v>10160.538</v>
       </c>
       <c r="Z2">
-        <v>9.710000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="AA2">
-        <v>218.095</v>
+        <v>90271</v>
       </c>
       <c r="AB2">
-        <v>32.726</v>
+        <v>16475</v>
       </c>
       <c r="AC2">
-        <v>485.358</v>
+        <v>219618</v>
       </c>
     </row>
   </sheetData>
@@ -21447,40 +21210,43 @@
         <v>196</v>
       </c>
       <c r="B2">
-        <v>53000</v>
+        <v>23243.1</v>
+      </c>
+      <c r="C2">
+        <v>3092.65</v>
       </c>
       <c r="D2">
-        <v>592000</v>
+        <v>124114</v>
       </c>
       <c r="O2">
-        <v>592000</v>
+        <v>124114</v>
       </c>
       <c r="U2">
-        <v>354191.1814</v>
+        <v>94481.20080000001</v>
       </c>
       <c r="V2">
-        <v>246252</v>
+        <v>42298</v>
       </c>
       <c r="W2">
-        <v>343762.1814</v>
+        <v>82907.20080000001</v>
       </c>
       <c r="X2" t="s">
         <v>197</v>
       </c>
       <c r="Y2">
-        <v>1931</v>
+        <v>1134.96</v>
       </c>
       <c r="Z2">
-        <v>179.49</v>
+        <v>75.19</v>
       </c>
       <c r="AA2">
-        <v>27370</v>
+        <v>12985</v>
       </c>
       <c r="AB2">
-        <v>17901</v>
+        <v>1411</v>
       </c>
       <c r="AC2">
-        <v>257709</v>
+        <v>76142</v>
       </c>
     </row>
   </sheetData>
@@ -21590,52 +21356,43 @@
         <v>198</v>
       </c>
       <c r="B2">
-        <v>53066.398</v>
+        <v>34.083</v>
       </c>
       <c r="C2">
-        <v>4023.26</v>
+        <v>54.788</v>
       </c>
       <c r="D2">
-        <v>75799.79700000001</v>
-      </c>
-      <c r="E2">
-        <v>14180</v>
-      </c>
-      <c r="G2">
-        <v>38710</v>
-      </c>
-      <c r="H2">
-        <v>9.842000000000001</v>
-      </c>
-      <c r="O2">
-        <v>22900</v>
-      </c>
-      <c r="U2">
-        <v>138323.4165</v>
+        <v>6.964</v>
+      </c>
+      <c r="I2">
+        <v>0.667</v>
+      </c>
+      <c r="J2">
+        <v>6.297</v>
       </c>
       <c r="V2">
-        <v>140517</v>
+        <v>27216</v>
       </c>
       <c r="W2">
-        <v>51102.4165</v>
+        <v>84969.27899999999</v>
       </c>
       <c r="X2" t="s">
         <v>199</v>
       </c>
       <c r="Y2">
-        <v>10160.538</v>
+        <v>664</v>
       </c>
       <c r="Z2">
-        <v>5.03</v>
+        <v>125.49</v>
       </c>
       <c r="AA2">
-        <v>90271</v>
+        <v>149652</v>
       </c>
       <c r="AB2">
-        <v>16475</v>
+        <v>206337</v>
       </c>
       <c r="AC2">
-        <v>219618</v>
+        <v>1173397</v>
       </c>
     </row>
   </sheetData>
@@ -21745,43 +21502,49 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>23243.1</v>
+        <v>33515.301</v>
       </c>
       <c r="C2">
-        <v>3092.65</v>
+        <v>1360.58</v>
       </c>
       <c r="D2">
-        <v>124114</v>
+        <v>143000</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>7500</v>
+      </c>
+      <c r="N2">
+        <v>7500</v>
       </c>
       <c r="O2">
-        <v>124114</v>
+        <v>126000</v>
       </c>
       <c r="U2">
-        <v>94481.20080000001</v>
-      </c>
-      <c r="V2">
-        <v>42298</v>
+        <v>71083.3795</v>
       </c>
       <c r="W2">
-        <v>82907.20080000001</v>
+        <v>57444.3795</v>
       </c>
       <c r="X2" t="s">
         <v>201</v>
       </c>
       <c r="Y2">
-        <v>1134.96</v>
+        <v>1387</v>
       </c>
       <c r="Z2">
-        <v>75.19</v>
+        <v>42.95</v>
       </c>
       <c r="AA2">
-        <v>12985</v>
+        <v>15619</v>
       </c>
       <c r="AB2">
-        <v>1411</v>
+        <v>1980</v>
       </c>
       <c r="AC2">
-        <v>76142</v>
+        <v>84618</v>
       </c>
     </row>
   </sheetData>
@@ -21890,44 +21653,8 @@
       <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="B2">
-        <v>34.083</v>
-      </c>
-      <c r="C2">
-        <v>54.788</v>
-      </c>
-      <c r="D2">
-        <v>6.964</v>
-      </c>
-      <c r="I2">
-        <v>0.667</v>
-      </c>
-      <c r="J2">
-        <v>6.297</v>
-      </c>
-      <c r="V2">
-        <v>27216</v>
-      </c>
-      <c r="W2">
-        <v>84969.27899999999</v>
-      </c>
       <c r="X2" t="s">
         <v>203</v>
-      </c>
-      <c r="Y2">
-        <v>664</v>
-      </c>
-      <c r="Z2">
-        <v>125.49</v>
-      </c>
-      <c r="AA2">
-        <v>149652</v>
-      </c>
-      <c r="AB2">
-        <v>206337</v>
-      </c>
-      <c r="AC2">
-        <v>1173397</v>
       </c>
     </row>
   </sheetData>
@@ -22036,50 +21763,26 @@
       <c r="A2" t="s">
         <v>204</v>
       </c>
-      <c r="B2">
-        <v>33515.301</v>
-      </c>
-      <c r="C2">
-        <v>1360.58</v>
-      </c>
-      <c r="D2">
-        <v>143000</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-      <c r="G2">
-        <v>7500</v>
-      </c>
-      <c r="N2">
-        <v>7500</v>
-      </c>
-      <c r="O2">
-        <v>126000</v>
-      </c>
       <c r="U2">
-        <v>71083.3795</v>
-      </c>
-      <c r="W2">
-        <v>57444.3795</v>
+        <v>329576.9142</v>
+      </c>
+      <c r="V2">
+        <v>302089</v>
       </c>
       <c r="X2" t="s">
         <v>205</v>
       </c>
-      <c r="Y2">
-        <v>1387</v>
-      </c>
       <c r="Z2">
-        <v>42.95</v>
+        <v>308.9</v>
       </c>
       <c r="AA2">
-        <v>15619</v>
+        <v>127683</v>
       </c>
       <c r="AB2">
-        <v>1980</v>
+        <v>490556</v>
       </c>
       <c r="AC2">
-        <v>84618</v>
+        <v>948465</v>
       </c>
     </row>
   </sheetData>
@@ -22343,8 +22046,83 @@
       <c r="A2" t="s">
         <v>206</v>
       </c>
+      <c r="B2">
+        <v>1484.6</v>
+      </c>
+      <c r="C2">
+        <v>779.092</v>
+      </c>
+      <c r="D2">
+        <v>2467.48</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>621</v>
+      </c>
+      <c r="G2">
+        <v>389.2</v>
+      </c>
+      <c r="H2">
+        <v>10.4</v>
+      </c>
+      <c r="I2">
+        <v>350</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>23.4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1048.5</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>9940790.785</v>
+      </c>
+      <c r="V2">
+        <v>12293348</v>
+      </c>
+      <c r="W2">
+        <v>6089936.785</v>
+      </c>
       <c r="X2" t="s">
         <v>207</v>
+      </c>
+      <c r="Y2">
+        <v>1483.6919</v>
+      </c>
+      <c r="Z2">
+        <v>4144</v>
+      </c>
+      <c r="AA2">
+        <v>3916874</v>
+      </c>
+      <c r="AB2">
+        <v>630390</v>
+      </c>
+      <c r="AC2">
+        <v>12153658</v>
       </c>
     </row>
   </sheetData>
@@ -22453,26 +22231,44 @@
       <c r="A2" t="s">
         <v>208</v>
       </c>
-      <c r="U2">
-        <v>329576.9142</v>
+      <c r="B2">
+        <v>28.797</v>
+      </c>
+      <c r="C2">
+        <v>69.982</v>
+      </c>
+      <c r="D2">
+        <v>10.507</v>
+      </c>
+      <c r="G2">
+        <v>4.969</v>
+      </c>
+      <c r="J2">
+        <v>5.538</v>
       </c>
       <c r="V2">
-        <v>302089</v>
+        <v>31416</v>
+      </c>
+      <c r="W2">
+        <v>78523.5325</v>
       </c>
       <c r="X2" t="s">
         <v>209</v>
       </c>
+      <c r="Y2">
+        <v>1199</v>
+      </c>
       <c r="Z2">
-        <v>308.9</v>
+        <v>65.91</v>
       </c>
       <c r="AA2">
-        <v>127683</v>
+        <v>187943</v>
       </c>
       <c r="AB2">
-        <v>490556</v>
+        <v>241208</v>
       </c>
       <c r="AC2">
-        <v>948465</v>
+        <v>1349418</v>
       </c>
     </row>
   </sheetData>
@@ -22582,82 +22378,40 @@
         <v>210</v>
       </c>
       <c r="B2">
-        <v>1484.6</v>
+        <v>22.84</v>
       </c>
       <c r="C2">
-        <v>779.092</v>
+        <v>65.577</v>
       </c>
       <c r="D2">
-        <v>2467.48</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>621</v>
-      </c>
-      <c r="G2">
-        <v>389.2</v>
-      </c>
-      <c r="H2">
-        <v>10.4</v>
-      </c>
-      <c r="I2">
-        <v>350</v>
+        <v>17.419</v>
       </c>
       <c r="J2">
-        <v>25</v>
-      </c>
-      <c r="K2">
-        <v>23.4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1048.5</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>9940790.785</v>
+        <v>17.419</v>
       </c>
       <c r="V2">
-        <v>12293348</v>
+        <v>48985</v>
       </c>
       <c r="W2">
-        <v>6089936.785</v>
+        <v>174315.9316</v>
       </c>
       <c r="X2" t="s">
         <v>211</v>
       </c>
       <c r="Y2">
-        <v>1483.6919</v>
+        <v>1403.654</v>
       </c>
       <c r="Z2">
-        <v>4144</v>
+        <v>126.05</v>
       </c>
       <c r="AA2">
-        <v>3916874</v>
+        <v>319483</v>
       </c>
       <c r="AB2">
-        <v>630390</v>
+        <v>498253</v>
       </c>
       <c r="AC2">
-        <v>12153658</v>
+        <v>1917219</v>
       </c>
     </row>
   </sheetData>
@@ -22766,44 +22520,8 @@
       <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2">
-        <v>28.797</v>
-      </c>
-      <c r="C2">
-        <v>69.982</v>
-      </c>
-      <c r="D2">
-        <v>10.507</v>
-      </c>
-      <c r="G2">
-        <v>4.969</v>
-      </c>
-      <c r="J2">
-        <v>5.538</v>
-      </c>
-      <c r="V2">
-        <v>31416</v>
-      </c>
-      <c r="W2">
-        <v>78523.5325</v>
-      </c>
       <c r="X2" t="s">
         <v>213</v>
-      </c>
-      <c r="Y2">
-        <v>1199</v>
-      </c>
-      <c r="Z2">
-        <v>65.91</v>
-      </c>
-      <c r="AA2">
-        <v>187943</v>
-      </c>
-      <c r="AB2">
-        <v>241208</v>
-      </c>
-      <c r="AC2">
-        <v>1349418</v>
       </c>
     </row>
   </sheetData>
@@ -22913,40 +22631,37 @@
         <v>214</v>
       </c>
       <c r="B2">
-        <v>22.84</v>
+        <v>26880</v>
       </c>
       <c r="C2">
-        <v>65.577</v>
-      </c>
-      <c r="D2">
-        <v>17.419</v>
-      </c>
-      <c r="J2">
-        <v>17.419</v>
+        <v>5448</v>
+      </c>
+      <c r="U2">
+        <v>56975.2386</v>
       </c>
       <c r="V2">
-        <v>48985</v>
+        <v>176383</v>
       </c>
       <c r="W2">
-        <v>174315.9316</v>
+        <v>47208.2386</v>
       </c>
       <c r="X2" t="s">
         <v>215</v>
       </c>
       <c r="Y2">
-        <v>1403.654</v>
+        <v>395</v>
       </c>
       <c r="Z2">
-        <v>126.05</v>
+        <v>126.86</v>
       </c>
       <c r="AA2">
-        <v>319483</v>
+        <v>12722</v>
       </c>
       <c r="AB2">
-        <v>498253</v>
+        <v>4862</v>
       </c>
       <c r="AC2">
-        <v>1917219</v>
+        <v>60982</v>
       </c>
     </row>
   </sheetData>
@@ -23055,8 +22770,38 @@
       <c r="A2" t="s">
         <v>216</v>
       </c>
+      <c r="B2">
+        <v>348.407</v>
+      </c>
+      <c r="C2">
+        <v>34.416</v>
+      </c>
+      <c r="U2">
+        <v>2654.3242</v>
+      </c>
+      <c r="V2">
+        <v>1340.18</v>
+      </c>
+      <c r="W2">
+        <v>2508.8232</v>
+      </c>
       <c r="X2" t="s">
         <v>217</v>
+      </c>
+      <c r="Y2">
+        <v>265.548</v>
+      </c>
+      <c r="Z2">
+        <v>9.43</v>
+      </c>
+      <c r="AA2">
+        <v>145.575</v>
+      </c>
+      <c r="AB2">
+        <v>0.074</v>
+      </c>
+      <c r="AC2">
+        <v>3169.365</v>
       </c>
     </row>
   </sheetData>
@@ -23166,37 +22911,76 @@
         <v>218</v>
       </c>
       <c r="B2">
-        <v>26880</v>
+        <v>39394.102</v>
       </c>
       <c r="C2">
-        <v>5448</v>
+        <v>788.871</v>
+      </c>
+      <c r="D2">
+        <v>179427</v>
+      </c>
+      <c r="E2">
+        <v>842.494</v>
+      </c>
+      <c r="F2">
+        <v>691.832</v>
+      </c>
+      <c r="G2">
+        <v>1724.37</v>
+      </c>
+      <c r="H2">
+        <v>1295.25</v>
+      </c>
+      <c r="I2">
+        <v>143.1</v>
+      </c>
+      <c r="J2">
+        <v>30.029</v>
+      </c>
+      <c r="K2">
+        <v>100.892</v>
+      </c>
+      <c r="N2">
+        <v>9910.830099999999</v>
+      </c>
+      <c r="O2">
+        <v>164317</v>
+      </c>
+      <c r="P2">
+        <v>82.446</v>
+      </c>
+      <c r="Q2">
+        <v>144.628</v>
+      </c>
+      <c r="R2">
+        <v>144.628</v>
       </c>
       <c r="U2">
-        <v>56975.2386</v>
+        <v>58304.8534</v>
       </c>
       <c r="V2">
-        <v>176383</v>
+        <v>133412</v>
       </c>
       <c r="W2">
-        <v>47208.2386</v>
+        <v>44446.8534</v>
       </c>
       <c r="X2" t="s">
         <v>219</v>
       </c>
       <c r="Y2">
-        <v>395</v>
+        <v>3483.6338</v>
       </c>
       <c r="Z2">
-        <v>126.86</v>
+        <v>13.286</v>
       </c>
       <c r="AA2">
-        <v>12722</v>
+        <v>31868</v>
       </c>
       <c r="AB2">
-        <v>4862</v>
+        <v>18481</v>
       </c>
       <c r="AC2">
-        <v>60982</v>
+        <v>152130</v>
       </c>
     </row>
   </sheetData>
@@ -23306,37 +23090,52 @@
         <v>220</v>
       </c>
       <c r="B2">
-        <v>348.407</v>
+        <v>15.046</v>
       </c>
       <c r="C2">
-        <v>34.416</v>
+        <v>18.818</v>
+      </c>
+      <c r="D2">
+        <v>31.768</v>
+      </c>
+      <c r="H2">
+        <v>0.227</v>
+      </c>
+      <c r="I2">
+        <v>7.296</v>
+      </c>
+      <c r="J2">
+        <v>5.976</v>
+      </c>
+      <c r="L2">
+        <v>18.269</v>
       </c>
       <c r="U2">
-        <v>2654.3242</v>
+        <v>34816.1</v>
       </c>
       <c r="V2">
-        <v>1340.18</v>
+        <v>23322</v>
       </c>
       <c r="W2">
-        <v>2508.8232</v>
+        <v>36830.1</v>
       </c>
       <c r="X2" t="s">
         <v>221</v>
       </c>
       <c r="Y2">
-        <v>265.548</v>
+        <v>586</v>
       </c>
       <c r="Z2">
-        <v>9.43</v>
+        <v>62.85</v>
       </c>
       <c r="AA2">
-        <v>145.575</v>
+        <v>6876</v>
       </c>
       <c r="AB2">
-        <v>0.074</v>
+        <v>11219</v>
       </c>
       <c r="AC2">
-        <v>3169.365</v>
+        <v>323608</v>
       </c>
     </row>
   </sheetData>
@@ -23445,77 +23244,17 @@
       <c r="A2" t="s">
         <v>222</v>
       </c>
-      <c r="B2">
-        <v>39394.102</v>
-      </c>
-      <c r="C2">
-        <v>788.871</v>
-      </c>
-      <c r="D2">
-        <v>179427</v>
-      </c>
-      <c r="E2">
-        <v>842.494</v>
-      </c>
-      <c r="F2">
-        <v>691.832</v>
-      </c>
-      <c r="G2">
-        <v>1724.37</v>
-      </c>
-      <c r="H2">
-        <v>1295.25</v>
-      </c>
-      <c r="I2">
-        <v>143.1</v>
-      </c>
-      <c r="J2">
-        <v>30.029</v>
-      </c>
-      <c r="K2">
-        <v>100.892</v>
-      </c>
-      <c r="N2">
-        <v>9910.830099999999</v>
-      </c>
-      <c r="O2">
-        <v>164317</v>
-      </c>
-      <c r="P2">
-        <v>82.446</v>
-      </c>
-      <c r="Q2">
-        <v>144.628</v>
-      </c>
-      <c r="R2">
-        <v>144.628</v>
-      </c>
-      <c r="U2">
-        <v>58304.8534</v>
-      </c>
-      <c r="V2">
-        <v>133412</v>
-      </c>
-      <c r="W2">
-        <v>44446.8534</v>
-      </c>
       <c r="X2" t="s">
         <v>223</v>
       </c>
-      <c r="Y2">
-        <v>3483.6338</v>
-      </c>
-      <c r="Z2">
-        <v>13.286</v>
-      </c>
       <c r="AA2">
-        <v>31868</v>
+        <v>2556</v>
       </c>
       <c r="AB2">
-        <v>18481</v>
+        <v>48</v>
       </c>
       <c r="AC2">
-        <v>152130</v>
+        <v>5720</v>
       </c>
     </row>
   </sheetData>
@@ -23625,52 +23364,58 @@
         <v>224</v>
       </c>
       <c r="B2">
-        <v>15.046</v>
+        <v>11.822</v>
       </c>
       <c r="C2">
-        <v>18.818</v>
+        <v>15.477</v>
       </c>
       <c r="D2">
-        <v>31.768</v>
+        <v>74.97499999999999</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
       </c>
       <c r="H2">
-        <v>0.227</v>
+        <v>0.0117</v>
       </c>
       <c r="I2">
-        <v>7.296</v>
+        <v>0.802</v>
       </c>
       <c r="J2">
-        <v>5.976</v>
+        <v>5.74</v>
       </c>
       <c r="L2">
-        <v>18.269</v>
+        <v>8.581099999999999</v>
+      </c>
+      <c r="S2">
+        <v>57.8</v>
       </c>
       <c r="U2">
-        <v>34816.1</v>
+        <v>46425.517</v>
       </c>
       <c r="V2">
-        <v>23322</v>
+        <v>48695</v>
       </c>
       <c r="W2">
-        <v>36830.1</v>
+        <v>21246.517</v>
       </c>
       <c r="X2" t="s">
         <v>225</v>
       </c>
       <c r="Y2">
-        <v>586</v>
+        <v>670.6</v>
       </c>
       <c r="Z2">
-        <v>62.85</v>
+        <v>31.85</v>
       </c>
       <c r="AA2">
-        <v>6876</v>
+        <v>15374</v>
       </c>
       <c r="AB2">
-        <v>11219</v>
+        <v>9848</v>
       </c>
       <c r="AC2">
-        <v>323608</v>
+        <v>704401</v>
       </c>
     </row>
   </sheetData>
